--- a/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E848987D-9119-427A-AC10-37731A12B554}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="MFG" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>MFG</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,86 +654,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15927400</v>
+        <v>12424400</v>
       </c>
       <c r="E8" s="3">
-        <v>13641600</v>
+        <v>18349500</v>
       </c>
       <c r="F8" s="3">
-        <v>13561500</v>
+        <v>18829500</v>
       </c>
       <c r="G8" s="3">
-        <v>13279600</v>
+        <v>15028900</v>
       </c>
       <c r="H8" s="3">
+        <v>12872000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12796500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12530400</v>
+      </c>
+      <c r="K8" s="3">
         <v>12862100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>12867300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>12991300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,9 +776,18 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,9 +812,18 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -834,8 +835,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,9 +864,18 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,9 +900,18 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -914,36 +936,54 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-72600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +992,83 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6629300</v>
+        <v>5107100</v>
       </c>
       <c r="E17" s="3">
-        <v>5955900</v>
+        <v>12341600</v>
       </c>
       <c r="F17" s="3">
-        <v>4642200</v>
+        <v>11404300</v>
       </c>
       <c r="G17" s="3">
-        <v>3018300</v>
+        <v>6255300</v>
       </c>
       <c r="H17" s="3">
+        <v>5619900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4380300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2848000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2489000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>4997300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>3552000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9298100</v>
+        <v>7317300</v>
       </c>
       <c r="E18" s="3">
-        <v>7685700</v>
+        <v>6007900</v>
       </c>
       <c r="F18" s="3">
-        <v>8919300</v>
+        <v>7425200</v>
       </c>
       <c r="G18" s="3">
-        <v>10261300</v>
+        <v>8773600</v>
       </c>
       <c r="H18" s="3">
+        <v>7252100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8416100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9682400</v>
+      </c>
+      <c r="K18" s="3">
         <v>10373100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>7870000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>9439300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,62 +1080,83 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1710900</v>
+        <v>1458000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3343100</v>
+        <v>-4698700</v>
       </c>
       <c r="F20" s="3">
-        <v>1898000</v>
+        <v>-6699600</v>
       </c>
       <c r="G20" s="3">
-        <v>-1305900</v>
+        <v>-1614400</v>
       </c>
       <c r="H20" s="3">
+        <v>-3154500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1790900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1232300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3806900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>132000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-3447300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9208600</v>
+        <v>10774700</v>
       </c>
       <c r="E21" s="3">
-        <v>5892000</v>
+        <v>3412600</v>
       </c>
       <c r="F21" s="3">
-        <v>12337100</v>
+        <v>3790600</v>
       </c>
       <c r="G21" s="3">
-        <v>10409100</v>
+        <v>8705300</v>
       </c>
       <c r="H21" s="3">
+        <v>5575100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>11656300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9836400</v>
+      </c>
+      <c r="K21" s="3">
         <v>8025500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>9424400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>7491800</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1099,63 +1181,90 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7587300</v>
+        <v>8775400</v>
       </c>
       <c r="E23" s="3">
-        <v>4342600</v>
+        <v>1309300</v>
       </c>
       <c r="F23" s="3">
-        <v>10817300</v>
+        <v>725600</v>
       </c>
       <c r="G23" s="3">
-        <v>8955300</v>
+        <v>7159200</v>
       </c>
       <c r="H23" s="3">
+        <v>4097600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>10207000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>8450100</v>
+      </c>
+      <c r="K23" s="3">
         <v>6566100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>8002000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>5992000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2147900</v>
+        <v>1797400</v>
       </c>
       <c r="E24" s="3">
-        <v>824800</v>
+        <v>402400</v>
       </c>
       <c r="F24" s="3">
-        <v>3132700</v>
+        <v>79600</v>
       </c>
       <c r="G24" s="3">
-        <v>2757100</v>
+        <v>2026800</v>
       </c>
       <c r="H24" s="3">
+        <v>778300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2956000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2601600</v>
+      </c>
+      <c r="K24" s="3">
         <v>2044000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>36400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>125500</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1289,90 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5439300</v>
+        <v>6977900</v>
       </c>
       <c r="E26" s="3">
-        <v>3517700</v>
+        <v>906900</v>
       </c>
       <c r="F26" s="3">
-        <v>7684600</v>
+        <v>645900</v>
       </c>
       <c r="G26" s="3">
-        <v>6198200</v>
+        <v>5132400</v>
       </c>
       <c r="H26" s="3">
+        <v>3319300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7251000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5848500</v>
+      </c>
+      <c r="K26" s="3">
         <v>4522100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>7965700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>5866600</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5221600</v>
+        <v>4962500</v>
       </c>
       <c r="E27" s="3">
-        <v>3276500</v>
+        <v>1281200</v>
       </c>
       <c r="F27" s="3">
-        <v>7666500</v>
+        <v>720500</v>
       </c>
       <c r="G27" s="3">
-        <v>5487500</v>
+        <v>4927000</v>
       </c>
       <c r="H27" s="3">
+        <v>3091600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7234000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5177900</v>
+      </c>
+      <c r="K27" s="3">
         <v>4445300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>7839400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>5855400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1397,18 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1433,18 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1469,18 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1505,90 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1710900</v>
+        <v>-1458000</v>
       </c>
       <c r="E32" s="3">
-        <v>3343100</v>
+        <v>4698700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1898000</v>
+        <v>6699600</v>
       </c>
       <c r="G32" s="3">
-        <v>1305900</v>
+        <v>1614400</v>
       </c>
       <c r="H32" s="3">
+        <v>3154500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1790900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1232300</v>
+      </c>
+      <c r="K32" s="3">
         <v>3806900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-132000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>3447300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5221600</v>
+        <v>4962500</v>
       </c>
       <c r="E33" s="3">
-        <v>3276500</v>
+        <v>1281200</v>
       </c>
       <c r="F33" s="3">
-        <v>7666500</v>
+        <v>720500</v>
       </c>
       <c r="G33" s="3">
-        <v>5487500</v>
+        <v>4927000</v>
       </c>
       <c r="H33" s="3">
+        <v>3091600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7234000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5177900</v>
+      </c>
+      <c r="K33" s="3">
         <v>4445300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>7839400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>5855400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1613,95 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5221600</v>
+        <v>4962500</v>
       </c>
       <c r="E35" s="3">
-        <v>3276500</v>
+        <v>1281200</v>
       </c>
       <c r="F35" s="3">
-        <v>7666500</v>
+        <v>720500</v>
       </c>
       <c r="G35" s="3">
-        <v>5487500</v>
+        <v>4927000</v>
       </c>
       <c r="H35" s="3">
+        <v>3091600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7234000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5177900</v>
+      </c>
+      <c r="K35" s="3">
         <v>4445300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>7839400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>5855400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1713,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,62 +1729,83 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>435465000</v>
+        <v>415702000</v>
       </c>
       <c r="E41" s="3">
-        <v>430186000</v>
+        <v>357843000</v>
       </c>
       <c r="F41" s="3">
-        <v>331316000</v>
+        <v>389589000</v>
       </c>
       <c r="G41" s="3">
-        <v>263029000</v>
+        <v>410898000</v>
       </c>
       <c r="H41" s="3">
+        <v>405917000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>312625000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>248190000</v>
+      </c>
+      <c r="K41" s="3">
         <v>15339800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>11466700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>10998300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>359968000</v>
+        <v>384551000</v>
       </c>
       <c r="E42" s="3">
-        <v>368742000</v>
+        <v>441225000</v>
       </c>
       <c r="F42" s="3">
-        <v>403950000</v>
+        <v>336286000</v>
       </c>
       <c r="G42" s="3">
-        <v>291768000</v>
+        <v>339660000</v>
       </c>
       <c r="H42" s="3">
+        <v>347939000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>381161000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>275308000</v>
+      </c>
+      <c r="K42" s="3">
         <v>549634000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>550699000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>464937000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1589,9 +1830,18 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1616,9 +1866,18 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1643,9 +1902,18 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1670,9 +1938,18 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1685,75 +1962,102 @@
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
-        <v>2639400</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2490500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2410200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>2725300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>3815500</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5020200</v>
+        <v>20668100</v>
       </c>
       <c r="E48" s="3">
-        <v>5776700</v>
+        <v>21063300</v>
       </c>
       <c r="F48" s="3">
-        <v>16615400</v>
+        <v>16215100</v>
       </c>
       <c r="G48" s="3">
-        <v>9745600</v>
+        <v>18051000</v>
       </c>
       <c r="H48" s="3">
+        <v>17412100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>15678100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9195800</v>
+      </c>
+      <c r="K48" s="3">
         <v>12263600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>9871600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>9988000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15734000</v>
+        <v>1269400</v>
       </c>
       <c r="E49" s="3">
-        <v>14387900</v>
+        <v>1345100</v>
       </c>
       <c r="F49" s="3">
-        <v>612400</v>
+        <v>1444900</v>
       </c>
       <c r="G49" s="3">
-        <v>5944300</v>
+        <v>1532300</v>
       </c>
       <c r="H49" s="3">
+        <v>1614900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>577900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5609000</v>
+      </c>
+      <c r="K49" s="3">
         <v>637300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>638400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>686500</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +2082,18 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +2118,54 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>516100</v>
+        <v>383600</v>
       </c>
       <c r="E52" s="3">
-        <v>574200</v>
+        <v>1166200</v>
       </c>
       <c r="F52" s="3">
-        <v>518400</v>
+        <v>424600</v>
       </c>
       <c r="G52" s="3">
-        <v>7054100</v>
+        <v>487000</v>
       </c>
       <c r="H52" s="3">
+        <v>541800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>489200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6656100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3662300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>5801700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>7564000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +2190,54 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1846470000</v>
+        <v>1890690000</v>
       </c>
       <c r="E54" s="3">
-        <v>1812130000</v>
+        <v>1801700000</v>
       </c>
       <c r="F54" s="3">
-        <v>1752040000</v>
+        <v>1685620000</v>
       </c>
       <c r="G54" s="3">
-        <v>1714750000</v>
+        <v>1742300000</v>
       </c>
       <c r="H54" s="3">
+        <v>1709890000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1653200000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1618010000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1588320000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>1615870000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>1503910000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +2249,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,35 +2265,47 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16873800</v>
+        <v>25422700</v>
       </c>
       <c r="E57" s="3">
-        <v>17012800</v>
+        <v>21633800</v>
       </c>
       <c r="F57" s="3">
-        <v>30059600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+        <v>25718700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>15921900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>16053000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>28363800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1966,36 +2330,54 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2688400</v>
+        <v>7570500</v>
       </c>
       <c r="E59" s="3">
-        <v>2557500</v>
+        <v>8062100</v>
       </c>
       <c r="F59" s="3">
-        <v>2514500</v>
+        <v>2962000</v>
       </c>
       <c r="G59" s="3">
-        <v>541200</v>
+        <v>2536700</v>
       </c>
       <c r="H59" s="3">
+        <v>2413200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2372600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>510700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1963800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1773800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>1902700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2020,63 +2402,90 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>117115000</v>
+        <v>99856200</v>
       </c>
       <c r="E61" s="3">
-        <v>131346000</v>
+        <v>88252700</v>
       </c>
       <c r="F61" s="3">
-        <v>133480000</v>
+        <v>98345800</v>
       </c>
       <c r="G61" s="3">
-        <v>119415000</v>
+        <v>110508000</v>
       </c>
       <c r="H61" s="3">
+        <v>123936000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>125950000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>112678000</v>
+      </c>
+      <c r="K61" s="3">
         <v>89079600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>79572100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>76494800</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2768100</v>
+        <v>656400</v>
       </c>
       <c r="E62" s="3">
-        <v>1269900</v>
+        <v>220700</v>
       </c>
       <c r="F62" s="3">
-        <v>1824800</v>
+        <v>922300</v>
       </c>
       <c r="G62" s="3">
-        <v>6508400</v>
+        <v>2611900</v>
       </c>
       <c r="H62" s="3">
+        <v>1198300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1721900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6141200</v>
+      </c>
+      <c r="K62" s="3">
         <v>300000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>129300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>143300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2510,18 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2546,18 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2582,54 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1766300000</v>
+        <v>1813020000</v>
       </c>
       <c r="E66" s="3">
-        <v>1737440000</v>
+        <v>1729090000</v>
       </c>
       <c r="F66" s="3">
-        <v>1679590000</v>
+        <v>1611190000</v>
       </c>
       <c r="G66" s="3">
-        <v>1640940000</v>
+        <v>1666650000</v>
       </c>
       <c r="H66" s="3">
+        <v>1639420000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1584840000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1548360000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1530660000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>1564090000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1463490000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2641,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2670,18 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2706,18 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2262,23 +2728,32 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>894300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1926600</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>843800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1817900</v>
+      </c>
+      <c r="K70" s="3">
         <v>2826400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="L70" s="3">
         <v>3411300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="M70" s="3">
         <v>3709700</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2778,54 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11807500</v>
+        <v>25311800</v>
       </c>
       <c r="E72" s="3">
-        <v>8306800</v>
+        <v>23037600</v>
       </c>
       <c r="F72" s="3">
-        <v>6750900</v>
+        <v>23376800</v>
       </c>
       <c r="G72" s="3">
-        <v>25069600</v>
+        <v>11141400</v>
       </c>
       <c r="H72" s="3">
+        <v>7838200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>6370100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>23655300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4858800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-7985800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-14519200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2850,18 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2886,18 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2922,54 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>80170500</v>
+        <v>77667700</v>
       </c>
       <c r="E76" s="3">
-        <v>74682700</v>
+        <v>72610500</v>
       </c>
       <c r="F76" s="3">
-        <v>71557200</v>
+        <v>74437200</v>
       </c>
       <c r="G76" s="3">
-        <v>71884500</v>
+        <v>75647600</v>
       </c>
       <c r="H76" s="3">
+        <v>70469400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>67520300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>67829100</v>
+      </c>
+      <c r="K76" s="3">
         <v>54835000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>48370900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>36706000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2994,95 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5221600</v>
+        <v>4962500</v>
       </c>
       <c r="E81" s="3">
-        <v>3276500</v>
+        <v>1281200</v>
       </c>
       <c r="F81" s="3">
-        <v>7666500</v>
+        <v>720500</v>
       </c>
       <c r="G81" s="3">
-        <v>5487500</v>
+        <v>4927000</v>
       </c>
       <c r="H81" s="3">
+        <v>3091600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>7234000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5177900</v>
+      </c>
+      <c r="K81" s="3">
         <v>4445300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>7839400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>5855400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +3094,47 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1619600</v>
+        <v>1976200</v>
       </c>
       <c r="E83" s="3">
-        <v>1547700</v>
+        <v>2079000</v>
       </c>
       <c r="F83" s="3">
-        <v>1518100</v>
+        <v>3029500</v>
       </c>
       <c r="G83" s="3">
-        <v>1452200</v>
+        <v>1528200</v>
       </c>
       <c r="H83" s="3">
+        <v>1460400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1432400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1370300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1457800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>1420800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>1498100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +3159,18 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +3195,18 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +3231,18 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +3267,18 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +3303,54 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1425300</v>
+        <v>3998500</v>
       </c>
       <c r="E89" s="3">
-        <v>10968300</v>
+        <v>-34470300</v>
       </c>
       <c r="F89" s="3">
-        <v>2185100</v>
+        <v>5638500</v>
       </c>
       <c r="G89" s="3">
-        <v>60160800</v>
+        <v>-1344800</v>
       </c>
       <c r="H89" s="3">
+        <v>10349500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2061800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>56766800</v>
+      </c>
+      <c r="K89" s="3">
         <v>53799800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-11733800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-16176500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +3362,47 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2641500</v>
+        <v>-1804100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3895500</v>
+        <v>-2073000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3512600</v>
+        <v>-1345300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1955300</v>
+        <v>-2492500</v>
       </c>
       <c r="H91" s="3">
+        <v>-3675700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3314500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1845000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4131100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-1458700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-1577600</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +3427,18 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3463,54 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39662800</v>
+        <v>-22291400</v>
       </c>
       <c r="E94" s="3">
-        <v>-115726000</v>
+        <v>-100718700</v>
       </c>
       <c r="F94" s="3">
-        <v>-54041800</v>
+        <v>-57780300</v>
       </c>
       <c r="G94" s="3">
-        <v>23677800</v>
+        <v>-37425200</v>
       </c>
       <c r="H94" s="3">
+        <v>-109197400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-50993000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>22342000</v>
+      </c>
+      <c r="K94" s="3">
         <v>3772400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-57149400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-16659800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3522,47 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1721100</v>
+        <v>-1624900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1717900</v>
+        <v>-1624000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1765400</v>
+        <v>-1624200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1592700</v>
+        <v>-1624000</v>
       </c>
       <c r="H96" s="3">
+        <v>-1621000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1665800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1502900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1375600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-1378700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-1951800</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3587,18 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3623,18 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3659,124 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>42059700</v>
+        <v>74142000</v>
       </c>
       <c r="E100" s="3">
-        <v>107302600</v>
+        <v>105404800</v>
       </c>
       <c r="F100" s="3">
-        <v>50250800</v>
+        <v>29073500</v>
       </c>
       <c r="G100" s="3">
-        <v>-8166700</v>
+        <v>39686900</v>
       </c>
       <c r="H100" s="3">
+        <v>101249000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>47415900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-7706000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-53986900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>69064300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>26811200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-125200</v>
+        <v>2009800</v>
       </c>
       <c r="E101" s="3">
-        <v>-107500</v>
+        <v>-1961200</v>
       </c>
       <c r="F101" s="3">
-        <v>-253700</v>
+        <v>1758800</v>
       </c>
       <c r="G101" s="3">
-        <v>339600</v>
+        <v>-118100</v>
       </c>
       <c r="H101" s="3">
+        <v>-101500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-239400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>320400</v>
+      </c>
+      <c r="K101" s="3">
         <v>287800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>287300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-12900</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>846500</v>
+        <v>57858800</v>
       </c>
       <c r="E102" s="3">
-        <v>2437100</v>
+        <v>-31745500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1859600</v>
+        <v>-21309500</v>
       </c>
       <c r="G102" s="3">
-        <v>76011500</v>
+        <v>798800</v>
       </c>
       <c r="H102" s="3">
+        <v>2299600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1754700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>71723200</v>
+      </c>
+      <c r="K102" s="3">
         <v>3873100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>468400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-6037900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12424400</v>
+        <v>11346600</v>
       </c>
       <c r="E8" s="3">
-        <v>18349500</v>
+        <v>16757600</v>
       </c>
       <c r="F8" s="3">
-        <v>18829500</v>
+        <v>17196000</v>
       </c>
       <c r="G8" s="3">
-        <v>15028900</v>
+        <v>13725100</v>
       </c>
       <c r="H8" s="3">
-        <v>12872000</v>
+        <v>11755300</v>
       </c>
       <c r="I8" s="3">
-        <v>12796500</v>
+        <v>11686300</v>
       </c>
       <c r="J8" s="3">
-        <v>12530400</v>
+        <v>11443300</v>
       </c>
       <c r="K8" s="3">
         <v>12862100</v>
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-72600</v>
+        <v>-66300</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5107100</v>
+        <v>4664000</v>
       </c>
       <c r="E17" s="3">
-        <v>12341600</v>
+        <v>11270900</v>
       </c>
       <c r="F17" s="3">
-        <v>11404300</v>
+        <v>10415000</v>
       </c>
       <c r="G17" s="3">
-        <v>6255300</v>
+        <v>5712600</v>
       </c>
       <c r="H17" s="3">
-        <v>5619900</v>
+        <v>5132400</v>
       </c>
       <c r="I17" s="3">
-        <v>4380300</v>
+        <v>4000300</v>
       </c>
       <c r="J17" s="3">
-        <v>2848000</v>
+        <v>2601000</v>
       </c>
       <c r="K17" s="3">
         <v>2489000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7317300</v>
+        <v>6682500</v>
       </c>
       <c r="E18" s="3">
-        <v>6007900</v>
+        <v>5486700</v>
       </c>
       <c r="F18" s="3">
-        <v>7425200</v>
+        <v>6781000</v>
       </c>
       <c r="G18" s="3">
-        <v>8773600</v>
+        <v>8012500</v>
       </c>
       <c r="H18" s="3">
-        <v>7252100</v>
+        <v>6622900</v>
       </c>
       <c r="I18" s="3">
-        <v>8416100</v>
+        <v>7686000</v>
       </c>
       <c r="J18" s="3">
-        <v>9682400</v>
+        <v>8842400</v>
       </c>
       <c r="K18" s="3">
         <v>10373100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1458000</v>
+        <v>1331500</v>
       </c>
       <c r="E20" s="3">
-        <v>-4698700</v>
+        <v>-4291000</v>
       </c>
       <c r="F20" s="3">
-        <v>-6699600</v>
+        <v>-6118400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1614400</v>
+        <v>-1474300</v>
       </c>
       <c r="H20" s="3">
-        <v>-3154500</v>
+        <v>-2880800</v>
       </c>
       <c r="I20" s="3">
-        <v>1790900</v>
+        <v>1635500</v>
       </c>
       <c r="J20" s="3">
-        <v>-1232300</v>
+        <v>-1125400</v>
       </c>
       <c r="K20" s="3">
         <v>-3806900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10774700</v>
+        <v>9795700</v>
       </c>
       <c r="E21" s="3">
-        <v>3412600</v>
+        <v>3069900</v>
       </c>
       <c r="F21" s="3">
-        <v>3790600</v>
+        <v>3393800</v>
       </c>
       <c r="G21" s="3">
-        <v>8705300</v>
+        <v>7915900</v>
       </c>
       <c r="H21" s="3">
-        <v>5575100</v>
+        <v>5058700</v>
       </c>
       <c r="I21" s="3">
-        <v>11656300</v>
+        <v>10612900</v>
       </c>
       <c r="J21" s="3">
-        <v>9836400</v>
+        <v>8952400</v>
       </c>
       <c r="K21" s="3">
         <v>8025500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8775400</v>
+        <v>8014100</v>
       </c>
       <c r="E23" s="3">
-        <v>1309300</v>
+        <v>1195700</v>
       </c>
       <c r="F23" s="3">
-        <v>725600</v>
+        <v>662600</v>
       </c>
       <c r="G23" s="3">
-        <v>7159200</v>
+        <v>6538100</v>
       </c>
       <c r="H23" s="3">
-        <v>4097600</v>
+        <v>3742100</v>
       </c>
       <c r="I23" s="3">
-        <v>10207000</v>
+        <v>9321600</v>
       </c>
       <c r="J23" s="3">
-        <v>8450100</v>
+        <v>7717000</v>
       </c>
       <c r="K23" s="3">
         <v>6566100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1797400</v>
+        <v>1641500</v>
       </c>
       <c r="E24" s="3">
-        <v>402400</v>
+        <v>367500</v>
       </c>
       <c r="F24" s="3">
-        <v>79600</v>
+        <v>72700</v>
       </c>
       <c r="G24" s="3">
-        <v>2026800</v>
+        <v>1850900</v>
       </c>
       <c r="H24" s="3">
-        <v>778300</v>
+        <v>710800</v>
       </c>
       <c r="I24" s="3">
-        <v>2956000</v>
+        <v>2699600</v>
       </c>
       <c r="J24" s="3">
-        <v>2601600</v>
+        <v>2375900</v>
       </c>
       <c r="K24" s="3">
         <v>2044000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6977900</v>
+        <v>6372600</v>
       </c>
       <c r="E26" s="3">
-        <v>906900</v>
+        <v>828200</v>
       </c>
       <c r="F26" s="3">
-        <v>645900</v>
+        <v>589900</v>
       </c>
       <c r="G26" s="3">
-        <v>5132400</v>
+        <v>4687200</v>
       </c>
       <c r="H26" s="3">
-        <v>3319300</v>
+        <v>3031300</v>
       </c>
       <c r="I26" s="3">
-        <v>7251000</v>
+        <v>6622000</v>
       </c>
       <c r="J26" s="3">
-        <v>5848500</v>
+        <v>5341100</v>
       </c>
       <c r="K26" s="3">
         <v>4522100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4962500</v>
+        <v>4531900</v>
       </c>
       <c r="E27" s="3">
-        <v>1281200</v>
+        <v>1170000</v>
       </c>
       <c r="F27" s="3">
-        <v>720500</v>
+        <v>658000</v>
       </c>
       <c r="G27" s="3">
-        <v>4927000</v>
+        <v>4499600</v>
       </c>
       <c r="H27" s="3">
-        <v>3091600</v>
+        <v>2823400</v>
       </c>
       <c r="I27" s="3">
-        <v>7234000</v>
+        <v>6606400</v>
       </c>
       <c r="J27" s="3">
-        <v>5177900</v>
+        <v>4728700</v>
       </c>
       <c r="K27" s="3">
         <v>4445300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1458000</v>
+        <v>-1331500</v>
       </c>
       <c r="E32" s="3">
-        <v>4698700</v>
+        <v>4291000</v>
       </c>
       <c r="F32" s="3">
-        <v>6699600</v>
+        <v>6118400</v>
       </c>
       <c r="G32" s="3">
-        <v>1614400</v>
+        <v>1474300</v>
       </c>
       <c r="H32" s="3">
-        <v>3154500</v>
+        <v>2880800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1790900</v>
+        <v>-1635500</v>
       </c>
       <c r="J32" s="3">
-        <v>1232300</v>
+        <v>1125400</v>
       </c>
       <c r="K32" s="3">
         <v>3806900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4962500</v>
+        <v>4531900</v>
       </c>
       <c r="E33" s="3">
-        <v>1281200</v>
+        <v>1170000</v>
       </c>
       <c r="F33" s="3">
-        <v>720500</v>
+        <v>658000</v>
       </c>
       <c r="G33" s="3">
-        <v>4927000</v>
+        <v>4499600</v>
       </c>
       <c r="H33" s="3">
-        <v>3091600</v>
+        <v>2823400</v>
       </c>
       <c r="I33" s="3">
-        <v>7234000</v>
+        <v>6606400</v>
       </c>
       <c r="J33" s="3">
-        <v>5177900</v>
+        <v>4728700</v>
       </c>
       <c r="K33" s="3">
         <v>4445300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4962500</v>
+        <v>4531900</v>
       </c>
       <c r="E35" s="3">
-        <v>1281200</v>
+        <v>1170000</v>
       </c>
       <c r="F35" s="3">
-        <v>720500</v>
+        <v>658000</v>
       </c>
       <c r="G35" s="3">
-        <v>4927000</v>
+        <v>4499600</v>
       </c>
       <c r="H35" s="3">
-        <v>3091600</v>
+        <v>2823400</v>
       </c>
       <c r="I35" s="3">
-        <v>7234000</v>
+        <v>6606400</v>
       </c>
       <c r="J35" s="3">
-        <v>5177900</v>
+        <v>4728700</v>
       </c>
       <c r="K35" s="3">
         <v>4445300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>415702000</v>
+        <v>379639000</v>
       </c>
       <c r="E41" s="3">
-        <v>357843000</v>
+        <v>326799000</v>
       </c>
       <c r="F41" s="3">
-        <v>389589000</v>
+        <v>355791000</v>
       </c>
       <c r="G41" s="3">
-        <v>410898000</v>
+        <v>375252000</v>
       </c>
       <c r="H41" s="3">
-        <v>405917000</v>
+        <v>370703000</v>
       </c>
       <c r="I41" s="3">
-        <v>312625000</v>
+        <v>285504000</v>
       </c>
       <c r="J41" s="3">
-        <v>248190000</v>
+        <v>226659000</v>
       </c>
       <c r="K41" s="3">
         <v>15339800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>384551000</v>
+        <v>351190000</v>
       </c>
       <c r="E42" s="3">
-        <v>441225000</v>
+        <v>402948000</v>
       </c>
       <c r="F42" s="3">
-        <v>336286000</v>
+        <v>307113000</v>
       </c>
       <c r="G42" s="3">
-        <v>339660000</v>
+        <v>310194000</v>
       </c>
       <c r="H42" s="3">
-        <v>347939000</v>
+        <v>317754000</v>
       </c>
       <c r="I42" s="3">
-        <v>381161000</v>
+        <v>348094000</v>
       </c>
       <c r="J42" s="3">
-        <v>275308000</v>
+        <v>251424000</v>
       </c>
       <c r="K42" s="3">
         <v>549634000</v>
@@ -1972,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="3">
-        <v>2490500</v>
+        <v>2274500</v>
       </c>
       <c r="K47" s="3">
         <v>2410200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20668100</v>
+        <v>18875100</v>
       </c>
       <c r="E48" s="3">
-        <v>21063300</v>
+        <v>19236000</v>
       </c>
       <c r="F48" s="3">
-        <v>16215100</v>
+        <v>14808400</v>
       </c>
       <c r="G48" s="3">
-        <v>18051000</v>
+        <v>16485100</v>
       </c>
       <c r="H48" s="3">
-        <v>17412100</v>
+        <v>15901500</v>
       </c>
       <c r="I48" s="3">
-        <v>15678100</v>
+        <v>14317900</v>
       </c>
       <c r="J48" s="3">
-        <v>9195800</v>
+        <v>8398000</v>
       </c>
       <c r="K48" s="3">
         <v>12263600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1269400</v>
+        <v>1159300</v>
       </c>
       <c r="E49" s="3">
-        <v>1345100</v>
+        <v>1228400</v>
       </c>
       <c r="F49" s="3">
-        <v>1444900</v>
+        <v>1319600</v>
       </c>
       <c r="G49" s="3">
-        <v>1532300</v>
+        <v>1399300</v>
       </c>
       <c r="H49" s="3">
-        <v>1614900</v>
+        <v>1474800</v>
       </c>
       <c r="I49" s="3">
-        <v>577900</v>
+        <v>527800</v>
       </c>
       <c r="J49" s="3">
-        <v>5609000</v>
+        <v>5122400</v>
       </c>
       <c r="K49" s="3">
         <v>637300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>383600</v>
+        <v>350300</v>
       </c>
       <c r="E52" s="3">
-        <v>1166200</v>
+        <v>1065000</v>
       </c>
       <c r="F52" s="3">
-        <v>424600</v>
+        <v>387700</v>
       </c>
       <c r="G52" s="3">
-        <v>487000</v>
+        <v>444700</v>
       </c>
       <c r="H52" s="3">
-        <v>541800</v>
+        <v>494800</v>
       </c>
       <c r="I52" s="3">
-        <v>489200</v>
+        <v>446700</v>
       </c>
       <c r="J52" s="3">
-        <v>6656100</v>
+        <v>6078700</v>
       </c>
       <c r="K52" s="3">
         <v>3662300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1890690000</v>
+        <v>1726670000</v>
       </c>
       <c r="E54" s="3">
-        <v>1801700000</v>
+        <v>1645390000</v>
       </c>
       <c r="F54" s="3">
-        <v>1685620000</v>
+        <v>1539390000</v>
       </c>
       <c r="G54" s="3">
-        <v>1742300000</v>
+        <v>1591150000</v>
       </c>
       <c r="H54" s="3">
-        <v>1709890000</v>
+        <v>1561550000</v>
       </c>
       <c r="I54" s="3">
-        <v>1653200000</v>
+        <v>1509780000</v>
       </c>
       <c r="J54" s="3">
-        <v>1618010000</v>
+        <v>1477640000</v>
       </c>
       <c r="K54" s="3">
         <v>1588320000</v>
@@ -2274,22 +2274,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25422700</v>
+        <v>23217200</v>
       </c>
       <c r="E57" s="3">
-        <v>21633800</v>
+        <v>19757000</v>
       </c>
       <c r="F57" s="3">
-        <v>25718700</v>
+        <v>23487600</v>
       </c>
       <c r="G57" s="3">
-        <v>15921900</v>
+        <v>14540600</v>
       </c>
       <c r="H57" s="3">
-        <v>16053000</v>
+        <v>14660400</v>
       </c>
       <c r="I57" s="3">
-        <v>28363800</v>
+        <v>25903100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7570500</v>
+        <v>6913700</v>
       </c>
       <c r="E59" s="3">
-        <v>8062100</v>
+        <v>7362700</v>
       </c>
       <c r="F59" s="3">
-        <v>2962000</v>
+        <v>2705000</v>
       </c>
       <c r="G59" s="3">
-        <v>2536700</v>
+        <v>2316600</v>
       </c>
       <c r="H59" s="3">
-        <v>2413200</v>
+        <v>2203800</v>
       </c>
       <c r="I59" s="3">
-        <v>2372600</v>
+        <v>2166800</v>
       </c>
       <c r="J59" s="3">
-        <v>510700</v>
+        <v>466400</v>
       </c>
       <c r="K59" s="3">
         <v>1963800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>99856200</v>
+        <v>91193400</v>
       </c>
       <c r="E61" s="3">
-        <v>88252700</v>
+        <v>80596500</v>
       </c>
       <c r="F61" s="3">
-        <v>98345800</v>
+        <v>89814000</v>
       </c>
       <c r="G61" s="3">
-        <v>110508000</v>
+        <v>100921000</v>
       </c>
       <c r="H61" s="3">
-        <v>123936000</v>
+        <v>113184000</v>
       </c>
       <c r="I61" s="3">
-        <v>125950000</v>
+        <v>115024000</v>
       </c>
       <c r="J61" s="3">
-        <v>112678000</v>
+        <v>102903000</v>
       </c>
       <c r="K61" s="3">
         <v>89079600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>656400</v>
+        <v>599500</v>
       </c>
       <c r="E62" s="3">
-        <v>220700</v>
+        <v>201600</v>
       </c>
       <c r="F62" s="3">
-        <v>922300</v>
+        <v>842300</v>
       </c>
       <c r="G62" s="3">
-        <v>2611900</v>
+        <v>2385300</v>
       </c>
       <c r="H62" s="3">
-        <v>1198300</v>
+        <v>1094300</v>
       </c>
       <c r="I62" s="3">
-        <v>1721900</v>
+        <v>1572500</v>
       </c>
       <c r="J62" s="3">
-        <v>6141200</v>
+        <v>5608400</v>
       </c>
       <c r="K62" s="3">
         <v>300000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1813020000</v>
+        <v>1655740000</v>
       </c>
       <c r="E66" s="3">
-        <v>1729090000</v>
+        <v>1579080000</v>
       </c>
       <c r="F66" s="3">
-        <v>1611190000</v>
+        <v>1471410000</v>
       </c>
       <c r="G66" s="3">
-        <v>1666650000</v>
+        <v>1522070000</v>
       </c>
       <c r="H66" s="3">
-        <v>1639420000</v>
+        <v>1497200000</v>
       </c>
       <c r="I66" s="3">
-        <v>1584840000</v>
+        <v>1447350000</v>
       </c>
       <c r="J66" s="3">
-        <v>1548360000</v>
+        <v>1414040000</v>
       </c>
       <c r="K66" s="3">
         <v>1530660000</v>
@@ -2737,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>843800</v>
+        <v>770600</v>
       </c>
       <c r="J70" s="3">
-        <v>1817900</v>
+        <v>1660200</v>
       </c>
       <c r="K70" s="3">
         <v>2826400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25311800</v>
+        <v>23115900</v>
       </c>
       <c r="E72" s="3">
-        <v>23037600</v>
+        <v>21039000</v>
       </c>
       <c r="F72" s="3">
-        <v>23376800</v>
+        <v>21348800</v>
       </c>
       <c r="G72" s="3">
-        <v>11141400</v>
+        <v>10174800</v>
       </c>
       <c r="H72" s="3">
-        <v>7838200</v>
+        <v>7158200</v>
       </c>
       <c r="I72" s="3">
-        <v>6370100</v>
+        <v>5817500</v>
       </c>
       <c r="J72" s="3">
-        <v>23655300</v>
+        <v>21603200</v>
       </c>
       <c r="K72" s="3">
         <v>-4858800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77667700</v>
+        <v>70929800</v>
       </c>
       <c r="E76" s="3">
-        <v>72610500</v>
+        <v>66311300</v>
       </c>
       <c r="F76" s="3">
-        <v>74437200</v>
+        <v>67979600</v>
       </c>
       <c r="G76" s="3">
-        <v>75647600</v>
+        <v>69085000</v>
       </c>
       <c r="H76" s="3">
-        <v>70469400</v>
+        <v>64356000</v>
       </c>
       <c r="I76" s="3">
-        <v>67520300</v>
+        <v>61662800</v>
       </c>
       <c r="J76" s="3">
-        <v>67829100</v>
+        <v>61944700</v>
       </c>
       <c r="K76" s="3">
         <v>54835000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4962500</v>
+        <v>4531900</v>
       </c>
       <c r="E81" s="3">
-        <v>1281200</v>
+        <v>1170000</v>
       </c>
       <c r="F81" s="3">
-        <v>720500</v>
+        <v>658000</v>
       </c>
       <c r="G81" s="3">
-        <v>4927000</v>
+        <v>4499600</v>
       </c>
       <c r="H81" s="3">
-        <v>3091600</v>
+        <v>2823400</v>
       </c>
       <c r="I81" s="3">
-        <v>7234000</v>
+        <v>6606400</v>
       </c>
       <c r="J81" s="3">
-        <v>5177900</v>
+        <v>4728700</v>
       </c>
       <c r="K81" s="3">
         <v>4445300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1976200</v>
+        <v>1804800</v>
       </c>
       <c r="E83" s="3">
-        <v>2079000</v>
+        <v>1898600</v>
       </c>
       <c r="F83" s="3">
-        <v>3029500</v>
+        <v>2766700</v>
       </c>
       <c r="G83" s="3">
-        <v>1528200</v>
+        <v>1395600</v>
       </c>
       <c r="H83" s="3">
-        <v>1460400</v>
+        <v>1333700</v>
       </c>
       <c r="I83" s="3">
-        <v>1432400</v>
+        <v>1308200</v>
       </c>
       <c r="J83" s="3">
-        <v>1370300</v>
+        <v>1251400</v>
       </c>
       <c r="K83" s="3">
         <v>1457800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3998500</v>
+        <v>3651600</v>
       </c>
       <c r="E89" s="3">
-        <v>-34470300</v>
+        <v>-31480000</v>
       </c>
       <c r="F89" s="3">
-        <v>5638500</v>
+        <v>5149300</v>
       </c>
       <c r="G89" s="3">
-        <v>-1344800</v>
+        <v>-1228200</v>
       </c>
       <c r="H89" s="3">
-        <v>10349500</v>
+        <v>9451700</v>
       </c>
       <c r="I89" s="3">
-        <v>2061800</v>
+        <v>1882900</v>
       </c>
       <c r="J89" s="3">
-        <v>56766800</v>
+        <v>51842100</v>
       </c>
       <c r="K89" s="3">
         <v>53799800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1804100</v>
+        <v>-1647500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2073000</v>
+        <v>-1893100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1345300</v>
+        <v>-1228600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2492500</v>
+        <v>-2276200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3675700</v>
+        <v>-3356800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3314500</v>
+        <v>-3026900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1845000</v>
+        <v>-1685000</v>
       </c>
       <c r="K91" s="3">
         <v>-4131100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22291400</v>
+        <v>-20357500</v>
       </c>
       <c r="E94" s="3">
-        <v>-100718700</v>
+        <v>-91981100</v>
       </c>
       <c r="F94" s="3">
-        <v>-57780300</v>
+        <v>-52767700</v>
       </c>
       <c r="G94" s="3">
-        <v>-37425200</v>
+        <v>-34178400</v>
       </c>
       <c r="H94" s="3">
-        <v>-109197400</v>
+        <v>-99724200</v>
       </c>
       <c r="I94" s="3">
-        <v>-50993000</v>
+        <v>-46569200</v>
       </c>
       <c r="J94" s="3">
-        <v>22342000</v>
+        <v>20403800</v>
       </c>
       <c r="K94" s="3">
         <v>3772400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1624900</v>
+        <v>-1484000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1624000</v>
+        <v>-1483100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1624200</v>
+        <v>-1483300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1624000</v>
+        <v>-1483100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1621000</v>
+        <v>-1480300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1665800</v>
+        <v>-1521300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1502900</v>
+        <v>-1372500</v>
       </c>
       <c r="K96" s="3">
         <v>-1375600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>74142000</v>
+        <v>67710000</v>
       </c>
       <c r="E100" s="3">
-        <v>105404800</v>
+        <v>96260700</v>
       </c>
       <c r="F100" s="3">
-        <v>29073500</v>
+        <v>26551300</v>
       </c>
       <c r="G100" s="3">
-        <v>39686900</v>
+        <v>36244000</v>
       </c>
       <c r="H100" s="3">
-        <v>101249000</v>
+        <v>92465400</v>
       </c>
       <c r="I100" s="3">
-        <v>47415900</v>
+        <v>43302400</v>
       </c>
       <c r="J100" s="3">
-        <v>-7706000</v>
+        <v>-7037500</v>
       </c>
       <c r="K100" s="3">
         <v>-53986900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2009800</v>
+        <v>1835400</v>
       </c>
       <c r="E101" s="3">
-        <v>-1961200</v>
+        <v>-1791100</v>
       </c>
       <c r="F101" s="3">
-        <v>1758800</v>
+        <v>1606200</v>
       </c>
       <c r="G101" s="3">
-        <v>-118100</v>
+        <v>-107900</v>
       </c>
       <c r="H101" s="3">
-        <v>-101500</v>
+        <v>-92700</v>
       </c>
       <c r="I101" s="3">
-        <v>-239400</v>
+        <v>-218600</v>
       </c>
       <c r="J101" s="3">
-        <v>320400</v>
+        <v>292600</v>
       </c>
       <c r="K101" s="3">
         <v>287800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>57858800</v>
+        <v>52839400</v>
       </c>
       <c r="E102" s="3">
-        <v>-31745500</v>
+        <v>-28991500</v>
       </c>
       <c r="F102" s="3">
-        <v>-21309500</v>
+        <v>-19460800</v>
       </c>
       <c r="G102" s="3">
-        <v>798800</v>
+        <v>729500</v>
       </c>
       <c r="H102" s="3">
-        <v>2299600</v>
+        <v>2100100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1754700</v>
+        <v>-1602500</v>
       </c>
       <c r="J102" s="3">
-        <v>71723200</v>
+        <v>65501000</v>
       </c>
       <c r="K102" s="3">
         <v>3873100</v>

--- a/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11346600</v>
+        <v>10676600</v>
       </c>
       <c r="E8" s="3">
-        <v>16757600</v>
+        <v>15768100</v>
       </c>
       <c r="F8" s="3">
-        <v>17196000</v>
+        <v>16180600</v>
       </c>
       <c r="G8" s="3">
-        <v>13725100</v>
+        <v>12914600</v>
       </c>
       <c r="H8" s="3">
-        <v>11755300</v>
+        <v>11061200</v>
       </c>
       <c r="I8" s="3">
-        <v>11686300</v>
+        <v>10996300</v>
       </c>
       <c r="J8" s="3">
-        <v>11443300</v>
+        <v>10767600</v>
       </c>
       <c r="K8" s="3">
         <v>12862100</v>
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-66300</v>
+        <v>-62400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4664000</v>
+        <v>4388600</v>
       </c>
       <c r="E17" s="3">
-        <v>11270900</v>
+        <v>10605400</v>
       </c>
       <c r="F17" s="3">
-        <v>10415000</v>
+        <v>9800000</v>
       </c>
       <c r="G17" s="3">
-        <v>5712600</v>
+        <v>5375300</v>
       </c>
       <c r="H17" s="3">
-        <v>5132400</v>
+        <v>4829300</v>
       </c>
       <c r="I17" s="3">
-        <v>4000300</v>
+        <v>3764100</v>
       </c>
       <c r="J17" s="3">
-        <v>2601000</v>
+        <v>2447400</v>
       </c>
       <c r="K17" s="3">
         <v>2489000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6682500</v>
+        <v>6287900</v>
       </c>
       <c r="E18" s="3">
-        <v>5486700</v>
+        <v>5162700</v>
       </c>
       <c r="F18" s="3">
-        <v>6781000</v>
+        <v>6380600</v>
       </c>
       <c r="G18" s="3">
-        <v>8012500</v>
+        <v>7539300</v>
       </c>
       <c r="H18" s="3">
-        <v>6622900</v>
+        <v>6231900</v>
       </c>
       <c r="I18" s="3">
-        <v>7686000</v>
+        <v>7232200</v>
       </c>
       <c r="J18" s="3">
-        <v>8842400</v>
+        <v>8320200</v>
       </c>
       <c r="K18" s="3">
         <v>10373100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1331500</v>
+        <v>1252900</v>
       </c>
       <c r="E20" s="3">
-        <v>-4291000</v>
+        <v>-4037600</v>
       </c>
       <c r="F20" s="3">
-        <v>-6118400</v>
+        <v>-5757100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1474300</v>
+        <v>-1387300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2880800</v>
+        <v>-2710700</v>
       </c>
       <c r="I20" s="3">
-        <v>1635500</v>
+        <v>1539000</v>
       </c>
       <c r="J20" s="3">
-        <v>-1125400</v>
+        <v>-1058900</v>
       </c>
       <c r="K20" s="3">
         <v>-3806900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9795700</v>
+        <v>9229800</v>
       </c>
       <c r="E21" s="3">
-        <v>3069900</v>
+        <v>2901800</v>
       </c>
       <c r="F21" s="3">
-        <v>3393800</v>
+        <v>3212600</v>
       </c>
       <c r="G21" s="3">
-        <v>7915900</v>
+        <v>7458100</v>
       </c>
       <c r="H21" s="3">
-        <v>5058700</v>
+        <v>4769200</v>
       </c>
       <c r="I21" s="3">
-        <v>10612900</v>
+        <v>9995300</v>
       </c>
       <c r="J21" s="3">
-        <v>8952400</v>
+        <v>8432400</v>
       </c>
       <c r="K21" s="3">
         <v>8025500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8014100</v>
+        <v>7540800</v>
       </c>
       <c r="E23" s="3">
-        <v>1195700</v>
+        <v>1125100</v>
       </c>
       <c r="F23" s="3">
-        <v>662600</v>
+        <v>623500</v>
       </c>
       <c r="G23" s="3">
-        <v>6538100</v>
+        <v>6152100</v>
       </c>
       <c r="H23" s="3">
-        <v>3742100</v>
+        <v>3521100</v>
       </c>
       <c r="I23" s="3">
-        <v>9321600</v>
+        <v>8771100</v>
       </c>
       <c r="J23" s="3">
-        <v>7717000</v>
+        <v>7261300</v>
       </c>
       <c r="K23" s="3">
         <v>6566100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1641500</v>
+        <v>1544500</v>
       </c>
       <c r="E24" s="3">
-        <v>367500</v>
+        <v>345800</v>
       </c>
       <c r="F24" s="3">
-        <v>72700</v>
+        <v>68400</v>
       </c>
       <c r="G24" s="3">
-        <v>1850900</v>
+        <v>1741600</v>
       </c>
       <c r="H24" s="3">
-        <v>710800</v>
+        <v>668800</v>
       </c>
       <c r="I24" s="3">
-        <v>2699600</v>
+        <v>2540200</v>
       </c>
       <c r="J24" s="3">
-        <v>2375900</v>
+        <v>2235600</v>
       </c>
       <c r="K24" s="3">
         <v>2044000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6372600</v>
+        <v>5996300</v>
       </c>
       <c r="E26" s="3">
-        <v>828200</v>
+        <v>779300</v>
       </c>
       <c r="F26" s="3">
-        <v>589900</v>
+        <v>555100</v>
       </c>
       <c r="G26" s="3">
-        <v>4687200</v>
+        <v>4410400</v>
       </c>
       <c r="H26" s="3">
-        <v>3031300</v>
+        <v>2852300</v>
       </c>
       <c r="I26" s="3">
-        <v>6622000</v>
+        <v>6231000</v>
       </c>
       <c r="J26" s="3">
-        <v>5341100</v>
+        <v>5025700</v>
       </c>
       <c r="K26" s="3">
         <v>4522100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4531900</v>
+        <v>4264300</v>
       </c>
       <c r="E27" s="3">
-        <v>1170000</v>
+        <v>1100900</v>
       </c>
       <c r="F27" s="3">
-        <v>658000</v>
+        <v>619200</v>
       </c>
       <c r="G27" s="3">
-        <v>4499600</v>
+        <v>4233900</v>
       </c>
       <c r="H27" s="3">
-        <v>2823400</v>
+        <v>2656700</v>
       </c>
       <c r="I27" s="3">
-        <v>6606400</v>
+        <v>6216300</v>
       </c>
       <c r="J27" s="3">
-        <v>4728700</v>
+        <v>4449500</v>
       </c>
       <c r="K27" s="3">
         <v>4445300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1331500</v>
+        <v>-1252900</v>
       </c>
       <c r="E32" s="3">
-        <v>4291000</v>
+        <v>4037600</v>
       </c>
       <c r="F32" s="3">
-        <v>6118400</v>
+        <v>5757100</v>
       </c>
       <c r="G32" s="3">
-        <v>1474300</v>
+        <v>1387300</v>
       </c>
       <c r="H32" s="3">
-        <v>2880800</v>
+        <v>2710700</v>
       </c>
       <c r="I32" s="3">
-        <v>-1635500</v>
+        <v>-1539000</v>
       </c>
       <c r="J32" s="3">
-        <v>1125400</v>
+        <v>1058900</v>
       </c>
       <c r="K32" s="3">
         <v>3806900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4531900</v>
+        <v>4264300</v>
       </c>
       <c r="E33" s="3">
-        <v>1170000</v>
+        <v>1100900</v>
       </c>
       <c r="F33" s="3">
-        <v>658000</v>
+        <v>619200</v>
       </c>
       <c r="G33" s="3">
-        <v>4499600</v>
+        <v>4233900</v>
       </c>
       <c r="H33" s="3">
-        <v>2823400</v>
+        <v>2656700</v>
       </c>
       <c r="I33" s="3">
-        <v>6606400</v>
+        <v>6216300</v>
       </c>
       <c r="J33" s="3">
-        <v>4728700</v>
+        <v>4449500</v>
       </c>
       <c r="K33" s="3">
         <v>4445300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4531900</v>
+        <v>4264300</v>
       </c>
       <c r="E35" s="3">
-        <v>1170000</v>
+        <v>1100900</v>
       </c>
       <c r="F35" s="3">
-        <v>658000</v>
+        <v>619200</v>
       </c>
       <c r="G35" s="3">
-        <v>4499600</v>
+        <v>4233900</v>
       </c>
       <c r="H35" s="3">
-        <v>2823400</v>
+        <v>2656700</v>
       </c>
       <c r="I35" s="3">
-        <v>6606400</v>
+        <v>6216300</v>
       </c>
       <c r="J35" s="3">
-        <v>4728700</v>
+        <v>4449500</v>
       </c>
       <c r="K35" s="3">
         <v>4445300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>379639000</v>
+        <v>357221000</v>
       </c>
       <c r="E41" s="3">
-        <v>326799000</v>
+        <v>307502000</v>
       </c>
       <c r="F41" s="3">
-        <v>355791000</v>
+        <v>334781000</v>
       </c>
       <c r="G41" s="3">
-        <v>375252000</v>
+        <v>353093000</v>
       </c>
       <c r="H41" s="3">
-        <v>370703000</v>
+        <v>348813000</v>
       </c>
       <c r="I41" s="3">
-        <v>285504000</v>
+        <v>268645000</v>
       </c>
       <c r="J41" s="3">
-        <v>226659000</v>
+        <v>213275000</v>
       </c>
       <c r="K41" s="3">
         <v>15339800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>351190000</v>
+        <v>330453000</v>
       </c>
       <c r="E42" s="3">
-        <v>402948000</v>
+        <v>379154000</v>
       </c>
       <c r="F42" s="3">
-        <v>307113000</v>
+        <v>288978000</v>
       </c>
       <c r="G42" s="3">
-        <v>310194000</v>
+        <v>291877000</v>
       </c>
       <c r="H42" s="3">
-        <v>317754000</v>
+        <v>298991000</v>
       </c>
       <c r="I42" s="3">
-        <v>348094000</v>
+        <v>327539000</v>
       </c>
       <c r="J42" s="3">
-        <v>251424000</v>
+        <v>236578000</v>
       </c>
       <c r="K42" s="3">
         <v>549634000</v>
@@ -1972,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="3">
-        <v>2274500</v>
+        <v>2140200</v>
       </c>
       <c r="K47" s="3">
         <v>2410200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18875100</v>
+        <v>17760500</v>
       </c>
       <c r="E48" s="3">
-        <v>19236000</v>
+        <v>18100100</v>
       </c>
       <c r="F48" s="3">
-        <v>14808400</v>
+        <v>13934000</v>
       </c>
       <c r="G48" s="3">
-        <v>16485100</v>
+        <v>15511600</v>
       </c>
       <c r="H48" s="3">
-        <v>15901500</v>
+        <v>14962500</v>
       </c>
       <c r="I48" s="3">
-        <v>14317900</v>
+        <v>13472500</v>
       </c>
       <c r="J48" s="3">
-        <v>8398000</v>
+        <v>7902100</v>
       </c>
       <c r="K48" s="3">
         <v>12263600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1159300</v>
+        <v>1090800</v>
       </c>
       <c r="E49" s="3">
-        <v>1228400</v>
+        <v>1155800</v>
       </c>
       <c r="F49" s="3">
-        <v>1319600</v>
+        <v>1241600</v>
       </c>
       <c r="G49" s="3">
-        <v>1399300</v>
+        <v>1316700</v>
       </c>
       <c r="H49" s="3">
-        <v>1474800</v>
+        <v>1387700</v>
       </c>
       <c r="I49" s="3">
-        <v>527800</v>
+        <v>496600</v>
       </c>
       <c r="J49" s="3">
-        <v>5122400</v>
+        <v>4819900</v>
       </c>
       <c r="K49" s="3">
         <v>637300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>350300</v>
+        <v>329600</v>
       </c>
       <c r="E52" s="3">
-        <v>1065000</v>
+        <v>1002100</v>
       </c>
       <c r="F52" s="3">
-        <v>387700</v>
+        <v>364900</v>
       </c>
       <c r="G52" s="3">
-        <v>444700</v>
+        <v>418500</v>
       </c>
       <c r="H52" s="3">
-        <v>494800</v>
+        <v>465600</v>
       </c>
       <c r="I52" s="3">
-        <v>446700</v>
+        <v>420400</v>
       </c>
       <c r="J52" s="3">
-        <v>6078700</v>
+        <v>5719700</v>
       </c>
       <c r="K52" s="3">
         <v>3662300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1726670000</v>
+        <v>1624710000</v>
       </c>
       <c r="E54" s="3">
-        <v>1645390000</v>
+        <v>1548230000</v>
       </c>
       <c r="F54" s="3">
-        <v>1539390000</v>
+        <v>1448490000</v>
       </c>
       <c r="G54" s="3">
-        <v>1591150000</v>
+        <v>1497190000</v>
       </c>
       <c r="H54" s="3">
-        <v>1561550000</v>
+        <v>1469340000</v>
       </c>
       <c r="I54" s="3">
-        <v>1509780000</v>
+        <v>1420630000</v>
       </c>
       <c r="J54" s="3">
-        <v>1477640000</v>
+        <v>1390390000</v>
       </c>
       <c r="K54" s="3">
         <v>1588320000</v>
@@ -2274,22 +2274,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23217200</v>
+        <v>21846200</v>
       </c>
       <c r="E57" s="3">
-        <v>19757000</v>
+        <v>18590400</v>
       </c>
       <c r="F57" s="3">
-        <v>23487600</v>
+        <v>22100600</v>
       </c>
       <c r="G57" s="3">
-        <v>14540600</v>
+        <v>13682000</v>
       </c>
       <c r="H57" s="3">
-        <v>14660400</v>
+        <v>13794700</v>
       </c>
       <c r="I57" s="3">
-        <v>25903100</v>
+        <v>24373500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6913700</v>
+        <v>6505400</v>
       </c>
       <c r="E59" s="3">
-        <v>7362700</v>
+        <v>6928000</v>
       </c>
       <c r="F59" s="3">
-        <v>2705000</v>
+        <v>2545300</v>
       </c>
       <c r="G59" s="3">
-        <v>2316600</v>
+        <v>2179800</v>
       </c>
       <c r="H59" s="3">
-        <v>2203800</v>
+        <v>2073700</v>
       </c>
       <c r="I59" s="3">
-        <v>2166800</v>
+        <v>2038800</v>
       </c>
       <c r="J59" s="3">
-        <v>466400</v>
+        <v>438800</v>
       </c>
       <c r="K59" s="3">
         <v>1963800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>91193400</v>
+        <v>85808400</v>
       </c>
       <c r="E61" s="3">
-        <v>80596500</v>
+        <v>75837300</v>
       </c>
       <c r="F61" s="3">
-        <v>89814000</v>
+        <v>84510500</v>
       </c>
       <c r="G61" s="3">
-        <v>100921000</v>
+        <v>94961800</v>
       </c>
       <c r="H61" s="3">
-        <v>113184000</v>
+        <v>106501000</v>
       </c>
       <c r="I61" s="3">
-        <v>115024000</v>
+        <v>108231000</v>
       </c>
       <c r="J61" s="3">
-        <v>102903000</v>
+        <v>96826400</v>
       </c>
       <c r="K61" s="3">
         <v>89079600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>599500</v>
+        <v>564100</v>
       </c>
       <c r="E62" s="3">
-        <v>201600</v>
+        <v>189700</v>
       </c>
       <c r="F62" s="3">
-        <v>842300</v>
+        <v>792500</v>
       </c>
       <c r="G62" s="3">
-        <v>2385300</v>
+        <v>2244500</v>
       </c>
       <c r="H62" s="3">
-        <v>1094300</v>
+        <v>1029700</v>
       </c>
       <c r="I62" s="3">
-        <v>1572500</v>
+        <v>1479600</v>
       </c>
       <c r="J62" s="3">
-        <v>5608400</v>
+        <v>5277200</v>
       </c>
       <c r="K62" s="3">
         <v>300000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1655740000</v>
+        <v>1557960000</v>
       </c>
       <c r="E66" s="3">
-        <v>1579080000</v>
+        <v>1485840000</v>
       </c>
       <c r="F66" s="3">
-        <v>1471410000</v>
+        <v>1384520000</v>
       </c>
       <c r="G66" s="3">
-        <v>1522070000</v>
+        <v>1432190000</v>
       </c>
       <c r="H66" s="3">
-        <v>1497200000</v>
+        <v>1408790000</v>
       </c>
       <c r="I66" s="3">
-        <v>1447350000</v>
+        <v>1361880000</v>
       </c>
       <c r="J66" s="3">
-        <v>1414040000</v>
+        <v>1330540000</v>
       </c>
       <c r="K66" s="3">
         <v>1530660000</v>
@@ -2737,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>770600</v>
+        <v>725100</v>
       </c>
       <c r="J70" s="3">
-        <v>1660200</v>
+        <v>1562200</v>
       </c>
       <c r="K70" s="3">
         <v>2826400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23115900</v>
+        <v>21750900</v>
       </c>
       <c r="E72" s="3">
-        <v>21039000</v>
+        <v>19796700</v>
       </c>
       <c r="F72" s="3">
-        <v>21348800</v>
+        <v>20088200</v>
       </c>
       <c r="G72" s="3">
-        <v>10174800</v>
+        <v>9574000</v>
       </c>
       <c r="H72" s="3">
-        <v>7158200</v>
+        <v>6735500</v>
       </c>
       <c r="I72" s="3">
-        <v>5817500</v>
+        <v>5473900</v>
       </c>
       <c r="J72" s="3">
-        <v>21603200</v>
+        <v>20327500</v>
       </c>
       <c r="K72" s="3">
         <v>-4858800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70929800</v>
+        <v>66741400</v>
       </c>
       <c r="E76" s="3">
-        <v>66311300</v>
+        <v>62395600</v>
       </c>
       <c r="F76" s="3">
-        <v>67979600</v>
+        <v>63965400</v>
       </c>
       <c r="G76" s="3">
-        <v>69085000</v>
+        <v>65005500</v>
       </c>
       <c r="H76" s="3">
-        <v>64356000</v>
+        <v>60555700</v>
       </c>
       <c r="I76" s="3">
-        <v>61662800</v>
+        <v>58021600</v>
       </c>
       <c r="J76" s="3">
-        <v>61944700</v>
+        <v>58286800</v>
       </c>
       <c r="K76" s="3">
         <v>54835000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4531900</v>
+        <v>4264300</v>
       </c>
       <c r="E81" s="3">
-        <v>1170000</v>
+        <v>1100900</v>
       </c>
       <c r="F81" s="3">
-        <v>658000</v>
+        <v>619200</v>
       </c>
       <c r="G81" s="3">
-        <v>4499600</v>
+        <v>4233900</v>
       </c>
       <c r="H81" s="3">
-        <v>2823400</v>
+        <v>2656700</v>
       </c>
       <c r="I81" s="3">
-        <v>6606400</v>
+        <v>6216300</v>
       </c>
       <c r="J81" s="3">
-        <v>4728700</v>
+        <v>4449500</v>
       </c>
       <c r="K81" s="3">
         <v>4445300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1804800</v>
+        <v>1698200</v>
       </c>
       <c r="E83" s="3">
-        <v>1898600</v>
+        <v>1786500</v>
       </c>
       <c r="F83" s="3">
-        <v>2766700</v>
+        <v>2603400</v>
       </c>
       <c r="G83" s="3">
-        <v>1395600</v>
+        <v>1313200</v>
       </c>
       <c r="H83" s="3">
-        <v>1333700</v>
+        <v>1254900</v>
       </c>
       <c r="I83" s="3">
-        <v>1308200</v>
+        <v>1230900</v>
       </c>
       <c r="J83" s="3">
-        <v>1251400</v>
+        <v>1177500</v>
       </c>
       <c r="K83" s="3">
         <v>1457800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3651600</v>
+        <v>3436000</v>
       </c>
       <c r="E89" s="3">
-        <v>-31480000</v>
+        <v>-29621100</v>
       </c>
       <c r="F89" s="3">
-        <v>5149300</v>
+        <v>4845300</v>
       </c>
       <c r="G89" s="3">
-        <v>-1228200</v>
+        <v>-1155700</v>
       </c>
       <c r="H89" s="3">
-        <v>9451700</v>
+        <v>8893500</v>
       </c>
       <c r="I89" s="3">
-        <v>1882900</v>
+        <v>1771700</v>
       </c>
       <c r="J89" s="3">
-        <v>51842100</v>
+        <v>48780800</v>
       </c>
       <c r="K89" s="3">
         <v>53799800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1647500</v>
+        <v>-1550300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1893100</v>
+        <v>-1781400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1228600</v>
+        <v>-1156000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2276200</v>
+        <v>-2141800</v>
       </c>
       <c r="H91" s="3">
-        <v>-3356800</v>
+        <v>-3158600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3026900</v>
+        <v>-2848200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1685000</v>
+        <v>-1585500</v>
       </c>
       <c r="K91" s="3">
         <v>-4131100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20357500</v>
+        <v>-19155400</v>
       </c>
       <c r="E94" s="3">
-        <v>-91981100</v>
+        <v>-86549600</v>
       </c>
       <c r="F94" s="3">
-        <v>-52767700</v>
+        <v>-49651700</v>
       </c>
       <c r="G94" s="3">
-        <v>-34178400</v>
+        <v>-32160200</v>
       </c>
       <c r="H94" s="3">
-        <v>-99724200</v>
+        <v>-93835500</v>
       </c>
       <c r="I94" s="3">
-        <v>-46569200</v>
+        <v>-43819300</v>
       </c>
       <c r="J94" s="3">
-        <v>20403800</v>
+        <v>19198900</v>
       </c>
       <c r="K94" s="3">
         <v>3772400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1484000</v>
+        <v>-1396400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1483100</v>
+        <v>-1395500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1483300</v>
+        <v>-1395700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1483100</v>
+        <v>-1395500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1480300</v>
+        <v>-1392900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1521300</v>
+        <v>-1431400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1372500</v>
+        <v>-1291400</v>
       </c>
       <c r="K96" s="3">
         <v>-1375600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>67710000</v>
+        <v>63711700</v>
       </c>
       <c r="E100" s="3">
-        <v>96260700</v>
+        <v>90576500</v>
       </c>
       <c r="F100" s="3">
-        <v>26551300</v>
+        <v>24983500</v>
       </c>
       <c r="G100" s="3">
-        <v>36244000</v>
+        <v>34103800</v>
       </c>
       <c r="H100" s="3">
-        <v>92465400</v>
+        <v>87005300</v>
       </c>
       <c r="I100" s="3">
-        <v>43302400</v>
+        <v>40745400</v>
       </c>
       <c r="J100" s="3">
-        <v>-7037500</v>
+        <v>-6621900</v>
       </c>
       <c r="K100" s="3">
         <v>-53986900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1835400</v>
+        <v>1727000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1791100</v>
+        <v>-1685300</v>
       </c>
       <c r="F101" s="3">
-        <v>1606200</v>
+        <v>1511300</v>
       </c>
       <c r="G101" s="3">
-        <v>-107900</v>
+        <v>-101500</v>
       </c>
       <c r="H101" s="3">
-        <v>-92700</v>
+        <v>-87200</v>
       </c>
       <c r="I101" s="3">
-        <v>-218600</v>
+        <v>-205700</v>
       </c>
       <c r="J101" s="3">
-        <v>292600</v>
+        <v>275400</v>
       </c>
       <c r="K101" s="3">
         <v>287800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>52839400</v>
+        <v>49719300</v>
       </c>
       <c r="E102" s="3">
-        <v>-28991500</v>
+        <v>-27279500</v>
       </c>
       <c r="F102" s="3">
-        <v>-19460800</v>
+        <v>-18311700</v>
       </c>
       <c r="G102" s="3">
-        <v>729500</v>
+        <v>686400</v>
       </c>
       <c r="H102" s="3">
-        <v>2100100</v>
+        <v>1976100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1602500</v>
+        <v>-1507800</v>
       </c>
       <c r="J102" s="3">
-        <v>65501000</v>
+        <v>61633200</v>
       </c>
       <c r="K102" s="3">
         <v>3873100</v>

--- a/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10676600</v>
+        <v>10327000</v>
       </c>
       <c r="E8" s="3">
-        <v>15768100</v>
+        <v>15251800</v>
       </c>
       <c r="F8" s="3">
-        <v>16180600</v>
+        <v>15650800</v>
       </c>
       <c r="G8" s="3">
-        <v>12914600</v>
+        <v>12491800</v>
       </c>
       <c r="H8" s="3">
-        <v>11061200</v>
+        <v>10699000</v>
       </c>
       <c r="I8" s="3">
-        <v>10996300</v>
+        <v>10636200</v>
       </c>
       <c r="J8" s="3">
-        <v>10767600</v>
+        <v>10415100</v>
       </c>
       <c r="K8" s="3">
         <v>12862100</v>
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-62400</v>
+        <v>-60400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4388600</v>
+        <v>4244900</v>
       </c>
       <c r="E17" s="3">
-        <v>10605400</v>
+        <v>10258100</v>
       </c>
       <c r="F17" s="3">
-        <v>9800000</v>
+        <v>9479100</v>
       </c>
       <c r="G17" s="3">
-        <v>5375300</v>
+        <v>5199300</v>
       </c>
       <c r="H17" s="3">
-        <v>4829300</v>
+        <v>4671200</v>
       </c>
       <c r="I17" s="3">
-        <v>3764100</v>
+        <v>3640900</v>
       </c>
       <c r="J17" s="3">
-        <v>2447400</v>
+        <v>2367200</v>
       </c>
       <c r="K17" s="3">
         <v>2489000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6287900</v>
+        <v>6082000</v>
       </c>
       <c r="E18" s="3">
-        <v>5162700</v>
+        <v>4993700</v>
       </c>
       <c r="F18" s="3">
-        <v>6380600</v>
+        <v>6171700</v>
       </c>
       <c r="G18" s="3">
-        <v>7539300</v>
+        <v>7292500</v>
       </c>
       <c r="H18" s="3">
-        <v>6231900</v>
+        <v>6027800</v>
       </c>
       <c r="I18" s="3">
-        <v>7232200</v>
+        <v>6995400</v>
       </c>
       <c r="J18" s="3">
-        <v>8320200</v>
+        <v>8047800</v>
       </c>
       <c r="K18" s="3">
         <v>10373100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1252900</v>
+        <v>1211900</v>
       </c>
       <c r="E20" s="3">
-        <v>-4037600</v>
+        <v>-3905400</v>
       </c>
       <c r="F20" s="3">
-        <v>-5757100</v>
+        <v>-5568600</v>
       </c>
       <c r="G20" s="3">
-        <v>-1387300</v>
+        <v>-1341800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2710700</v>
+        <v>-2622000</v>
       </c>
       <c r="I20" s="3">
-        <v>1539000</v>
+        <v>1488600</v>
       </c>
       <c r="J20" s="3">
-        <v>-1058900</v>
+        <v>-1024200</v>
       </c>
       <c r="K20" s="3">
         <v>-3806900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9229800</v>
+        <v>8876300</v>
       </c>
       <c r="E21" s="3">
-        <v>2901800</v>
+        <v>2752900</v>
       </c>
       <c r="F21" s="3">
-        <v>3212600</v>
+        <v>3028800</v>
       </c>
       <c r="G21" s="3">
-        <v>7458100</v>
+        <v>7174300</v>
       </c>
       <c r="H21" s="3">
-        <v>4769200</v>
+        <v>4575200</v>
       </c>
       <c r="I21" s="3">
-        <v>9995300</v>
+        <v>9630900</v>
       </c>
       <c r="J21" s="3">
-        <v>8432400</v>
+        <v>8120800</v>
       </c>
       <c r="K21" s="3">
         <v>8025500</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7540800</v>
+        <v>7293900</v>
       </c>
       <c r="E23" s="3">
-        <v>1125100</v>
+        <v>1088200</v>
       </c>
       <c r="F23" s="3">
-        <v>623500</v>
+        <v>603100</v>
       </c>
       <c r="G23" s="3">
-        <v>6152100</v>
+        <v>5950600</v>
       </c>
       <c r="H23" s="3">
-        <v>3521100</v>
+        <v>3405900</v>
       </c>
       <c r="I23" s="3">
-        <v>8771100</v>
+        <v>8483900</v>
       </c>
       <c r="J23" s="3">
-        <v>7261300</v>
+        <v>7023600</v>
       </c>
       <c r="K23" s="3">
         <v>6566100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1544500</v>
+        <v>1494000</v>
       </c>
       <c r="E24" s="3">
-        <v>345800</v>
+        <v>334500</v>
       </c>
       <c r="F24" s="3">
-        <v>68400</v>
+        <v>66200</v>
       </c>
       <c r="G24" s="3">
-        <v>1741600</v>
+        <v>1684600</v>
       </c>
       <c r="H24" s="3">
-        <v>668800</v>
+        <v>646900</v>
       </c>
       <c r="I24" s="3">
-        <v>2540200</v>
+        <v>2457000</v>
       </c>
       <c r="J24" s="3">
-        <v>2235600</v>
+        <v>2162400</v>
       </c>
       <c r="K24" s="3">
         <v>2044000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5996300</v>
+        <v>5800000</v>
       </c>
       <c r="E26" s="3">
-        <v>779300</v>
+        <v>753800</v>
       </c>
       <c r="F26" s="3">
-        <v>555100</v>
+        <v>536900</v>
       </c>
       <c r="G26" s="3">
-        <v>4410400</v>
+        <v>4266000</v>
       </c>
       <c r="H26" s="3">
-        <v>2852300</v>
+        <v>2758900</v>
       </c>
       <c r="I26" s="3">
-        <v>6231000</v>
+        <v>6026900</v>
       </c>
       <c r="J26" s="3">
-        <v>5025700</v>
+        <v>4861200</v>
       </c>
       <c r="K26" s="3">
         <v>4522100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4264300</v>
+        <v>4124700</v>
       </c>
       <c r="E27" s="3">
-        <v>1100900</v>
+        <v>1064900</v>
       </c>
       <c r="F27" s="3">
-        <v>619200</v>
+        <v>598900</v>
       </c>
       <c r="G27" s="3">
-        <v>4233900</v>
+        <v>4095200</v>
       </c>
       <c r="H27" s="3">
-        <v>2656700</v>
+        <v>2569700</v>
       </c>
       <c r="I27" s="3">
-        <v>6216300</v>
+        <v>6012800</v>
       </c>
       <c r="J27" s="3">
-        <v>4449500</v>
+        <v>4303800</v>
       </c>
       <c r="K27" s="3">
         <v>4445300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1252900</v>
+        <v>-1211900</v>
       </c>
       <c r="E32" s="3">
-        <v>4037600</v>
+        <v>3905400</v>
       </c>
       <c r="F32" s="3">
-        <v>5757100</v>
+        <v>5568600</v>
       </c>
       <c r="G32" s="3">
-        <v>1387300</v>
+        <v>1341800</v>
       </c>
       <c r="H32" s="3">
-        <v>2710700</v>
+        <v>2622000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1539000</v>
+        <v>-1488600</v>
       </c>
       <c r="J32" s="3">
-        <v>1058900</v>
+        <v>1024200</v>
       </c>
       <c r="K32" s="3">
         <v>3806900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4264300</v>
+        <v>4124700</v>
       </c>
       <c r="E33" s="3">
-        <v>1100900</v>
+        <v>1064900</v>
       </c>
       <c r="F33" s="3">
-        <v>619200</v>
+        <v>598900</v>
       </c>
       <c r="G33" s="3">
-        <v>4233900</v>
+        <v>4095200</v>
       </c>
       <c r="H33" s="3">
-        <v>2656700</v>
+        <v>2569700</v>
       </c>
       <c r="I33" s="3">
-        <v>6216300</v>
+        <v>6012800</v>
       </c>
       <c r="J33" s="3">
-        <v>4449500</v>
+        <v>4303800</v>
       </c>
       <c r="K33" s="3">
         <v>4445300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4264300</v>
+        <v>4124700</v>
       </c>
       <c r="E35" s="3">
-        <v>1100900</v>
+        <v>1064900</v>
       </c>
       <c r="F35" s="3">
-        <v>619200</v>
+        <v>598900</v>
       </c>
       <c r="G35" s="3">
-        <v>4233900</v>
+        <v>4095200</v>
       </c>
       <c r="H35" s="3">
-        <v>2656700</v>
+        <v>2569700</v>
       </c>
       <c r="I35" s="3">
-        <v>6216300</v>
+        <v>6012800</v>
       </c>
       <c r="J35" s="3">
-        <v>4449500</v>
+        <v>4303800</v>
       </c>
       <c r="K35" s="3">
         <v>4445300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>357221000</v>
+        <v>345525000</v>
       </c>
       <c r="E41" s="3">
-        <v>307502000</v>
+        <v>297433000</v>
       </c>
       <c r="F41" s="3">
-        <v>334781000</v>
+        <v>323820000</v>
       </c>
       <c r="G41" s="3">
-        <v>353093000</v>
+        <v>341532000</v>
       </c>
       <c r="H41" s="3">
-        <v>348813000</v>
+        <v>337392000</v>
       </c>
       <c r="I41" s="3">
-        <v>268645000</v>
+        <v>259849000</v>
       </c>
       <c r="J41" s="3">
-        <v>213275000</v>
+        <v>206292000</v>
       </c>
       <c r="K41" s="3">
         <v>15339800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>330453000</v>
+        <v>319633000</v>
       </c>
       <c r="E42" s="3">
-        <v>379154000</v>
+        <v>366739000</v>
       </c>
       <c r="F42" s="3">
-        <v>288978000</v>
+        <v>279516000</v>
       </c>
       <c r="G42" s="3">
-        <v>291877000</v>
+        <v>282320000</v>
       </c>
       <c r="H42" s="3">
-        <v>298991000</v>
+        <v>289201000</v>
       </c>
       <c r="I42" s="3">
-        <v>327539000</v>
+        <v>316815000</v>
       </c>
       <c r="J42" s="3">
-        <v>236578000</v>
+        <v>228831000</v>
       </c>
       <c r="K42" s="3">
         <v>549634000</v>
@@ -1972,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="3">
-        <v>2140200</v>
+        <v>2070100</v>
       </c>
       <c r="K47" s="3">
         <v>2410200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17760500</v>
+        <v>17179000</v>
       </c>
       <c r="E48" s="3">
-        <v>18100100</v>
+        <v>17507500</v>
       </c>
       <c r="F48" s="3">
-        <v>13934000</v>
+        <v>13477700</v>
       </c>
       <c r="G48" s="3">
-        <v>15511600</v>
+        <v>15003700</v>
       </c>
       <c r="H48" s="3">
-        <v>14962500</v>
+        <v>14472600</v>
       </c>
       <c r="I48" s="3">
-        <v>13472500</v>
+        <v>13031300</v>
       </c>
       <c r="J48" s="3">
-        <v>7902100</v>
+        <v>7643400</v>
       </c>
       <c r="K48" s="3">
         <v>12263600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1090800</v>
+        <v>1055100</v>
       </c>
       <c r="E49" s="3">
-        <v>1155800</v>
+        <v>1118000</v>
       </c>
       <c r="F49" s="3">
-        <v>1241600</v>
+        <v>1201000</v>
       </c>
       <c r="G49" s="3">
-        <v>1316700</v>
+        <v>1273600</v>
       </c>
       <c r="H49" s="3">
-        <v>1387700</v>
+        <v>1342300</v>
       </c>
       <c r="I49" s="3">
-        <v>496600</v>
+        <v>480300</v>
       </c>
       <c r="J49" s="3">
-        <v>4819900</v>
+        <v>4662100</v>
       </c>
       <c r="K49" s="3">
         <v>637300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>329600</v>
+        <v>318800</v>
       </c>
       <c r="E52" s="3">
-        <v>1002100</v>
+        <v>969300</v>
       </c>
       <c r="F52" s="3">
-        <v>364900</v>
+        <v>352900</v>
       </c>
       <c r="G52" s="3">
-        <v>418500</v>
+        <v>404800</v>
       </c>
       <c r="H52" s="3">
-        <v>465600</v>
+        <v>450400</v>
       </c>
       <c r="I52" s="3">
-        <v>420400</v>
+        <v>406600</v>
       </c>
       <c r="J52" s="3">
-        <v>5719700</v>
+        <v>5532500</v>
       </c>
       <c r="K52" s="3">
         <v>3662300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1624710000</v>
+        <v>1571510000</v>
       </c>
       <c r="E54" s="3">
-        <v>1548230000</v>
+        <v>1497540000</v>
       </c>
       <c r="F54" s="3">
-        <v>1448490000</v>
+        <v>1401060000</v>
       </c>
       <c r="G54" s="3">
-        <v>1497190000</v>
+        <v>1448170000</v>
       </c>
       <c r="H54" s="3">
-        <v>1469340000</v>
+        <v>1421240000</v>
       </c>
       <c r="I54" s="3">
-        <v>1420630000</v>
+        <v>1374110000</v>
       </c>
       <c r="J54" s="3">
-        <v>1390390000</v>
+        <v>1344860000</v>
       </c>
       <c r="K54" s="3">
         <v>1588320000</v>
@@ -2274,22 +2274,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21846200</v>
+        <v>21131000</v>
       </c>
       <c r="E57" s="3">
-        <v>18590400</v>
+        <v>17981700</v>
       </c>
       <c r="F57" s="3">
-        <v>22100600</v>
+        <v>21377000</v>
       </c>
       <c r="G57" s="3">
-        <v>13682000</v>
+        <v>13234000</v>
       </c>
       <c r="H57" s="3">
-        <v>13794700</v>
+        <v>13343000</v>
       </c>
       <c r="I57" s="3">
-        <v>24373500</v>
+        <v>23575500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6505400</v>
+        <v>6292400</v>
       </c>
       <c r="E59" s="3">
-        <v>6928000</v>
+        <v>6701100</v>
       </c>
       <c r="F59" s="3">
-        <v>2545300</v>
+        <v>2462000</v>
       </c>
       <c r="G59" s="3">
-        <v>2179800</v>
+        <v>2108500</v>
       </c>
       <c r="H59" s="3">
-        <v>2073700</v>
+        <v>2005800</v>
       </c>
       <c r="I59" s="3">
-        <v>2038800</v>
+        <v>1972100</v>
       </c>
       <c r="J59" s="3">
-        <v>438800</v>
+        <v>424500</v>
       </c>
       <c r="K59" s="3">
         <v>1963800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85808400</v>
+        <v>82998900</v>
       </c>
       <c r="E61" s="3">
-        <v>75837300</v>
+        <v>73354200</v>
       </c>
       <c r="F61" s="3">
-        <v>84510500</v>
+        <v>81743400</v>
       </c>
       <c r="G61" s="3">
-        <v>94961800</v>
+        <v>91852600</v>
       </c>
       <c r="H61" s="3">
-        <v>106501000</v>
+        <v>103014000</v>
       </c>
       <c r="I61" s="3">
-        <v>108231000</v>
+        <v>104688000</v>
       </c>
       <c r="J61" s="3">
-        <v>96826400</v>
+        <v>93656100</v>
       </c>
       <c r="K61" s="3">
         <v>89079600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>564100</v>
+        <v>545600</v>
       </c>
       <c r="E62" s="3">
-        <v>189700</v>
+        <v>183400</v>
       </c>
       <c r="F62" s="3">
-        <v>792500</v>
+        <v>766600</v>
       </c>
       <c r="G62" s="3">
-        <v>2244500</v>
+        <v>2171000</v>
       </c>
       <c r="H62" s="3">
-        <v>1029700</v>
+        <v>996000</v>
       </c>
       <c r="I62" s="3">
-        <v>1479600</v>
+        <v>1431200</v>
       </c>
       <c r="J62" s="3">
-        <v>5277200</v>
+        <v>5104500</v>
       </c>
       <c r="K62" s="3">
         <v>300000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1557960000</v>
+        <v>1506950000</v>
       </c>
       <c r="E66" s="3">
-        <v>1485840000</v>
+        <v>1437190000</v>
       </c>
       <c r="F66" s="3">
-        <v>1384520000</v>
+        <v>1339190000</v>
       </c>
       <c r="G66" s="3">
-        <v>1432190000</v>
+        <v>1385300000</v>
       </c>
       <c r="H66" s="3">
-        <v>1408790000</v>
+        <v>1362660000</v>
       </c>
       <c r="I66" s="3">
-        <v>1361880000</v>
+        <v>1317290000</v>
       </c>
       <c r="J66" s="3">
-        <v>1330540000</v>
+        <v>1286980000</v>
       </c>
       <c r="K66" s="3">
         <v>1530660000</v>
@@ -2737,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>725100</v>
+        <v>701400</v>
       </c>
       <c r="J70" s="3">
-        <v>1562200</v>
+        <v>1511000</v>
       </c>
       <c r="K70" s="3">
         <v>2826400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21750900</v>
+        <v>21038800</v>
       </c>
       <c r="E72" s="3">
-        <v>19796700</v>
+        <v>19148500</v>
       </c>
       <c r="F72" s="3">
-        <v>20088200</v>
+        <v>19430500</v>
       </c>
       <c r="G72" s="3">
-        <v>9574000</v>
+        <v>9260500</v>
       </c>
       <c r="H72" s="3">
-        <v>6735500</v>
+        <v>6515000</v>
       </c>
       <c r="I72" s="3">
-        <v>5473900</v>
+        <v>5294700</v>
       </c>
       <c r="J72" s="3">
-        <v>20327500</v>
+        <v>19661900</v>
       </c>
       <c r="K72" s="3">
         <v>-4858800</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66741400</v>
+        <v>64556100</v>
       </c>
       <c r="E76" s="3">
-        <v>62395600</v>
+        <v>60352700</v>
       </c>
       <c r="F76" s="3">
-        <v>63965400</v>
+        <v>61871000</v>
       </c>
       <c r="G76" s="3">
-        <v>65005500</v>
+        <v>62877100</v>
       </c>
       <c r="H76" s="3">
-        <v>60555700</v>
+        <v>58573000</v>
       </c>
       <c r="I76" s="3">
-        <v>58021600</v>
+        <v>56121800</v>
       </c>
       <c r="J76" s="3">
-        <v>58286800</v>
+        <v>56378400</v>
       </c>
       <c r="K76" s="3">
         <v>54835000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4264300</v>
+        <v>4124700</v>
       </c>
       <c r="E81" s="3">
-        <v>1100900</v>
+        <v>1064900</v>
       </c>
       <c r="F81" s="3">
-        <v>619200</v>
+        <v>598900</v>
       </c>
       <c r="G81" s="3">
-        <v>4233900</v>
+        <v>4095200</v>
       </c>
       <c r="H81" s="3">
-        <v>2656700</v>
+        <v>2569700</v>
       </c>
       <c r="I81" s="3">
-        <v>6216300</v>
+        <v>6012800</v>
       </c>
       <c r="J81" s="3">
-        <v>4449500</v>
+        <v>4303800</v>
       </c>
       <c r="K81" s="3">
         <v>4445300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1698200</v>
+        <v>1642600</v>
       </c>
       <c r="E83" s="3">
-        <v>1786500</v>
+        <v>1728000</v>
       </c>
       <c r="F83" s="3">
-        <v>2603400</v>
+        <v>2518100</v>
       </c>
       <c r="G83" s="3">
-        <v>1313200</v>
+        <v>1270200</v>
       </c>
       <c r="H83" s="3">
-        <v>1254900</v>
+        <v>1213800</v>
       </c>
       <c r="I83" s="3">
-        <v>1230900</v>
+        <v>1190600</v>
       </c>
       <c r="J83" s="3">
-        <v>1177500</v>
+        <v>1139000</v>
       </c>
       <c r="K83" s="3">
         <v>1457800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3436000</v>
+        <v>3323500</v>
       </c>
       <c r="E89" s="3">
-        <v>-29621100</v>
+        <v>-28651200</v>
       </c>
       <c r="F89" s="3">
-        <v>4845300</v>
+        <v>4686600</v>
       </c>
       <c r="G89" s="3">
-        <v>-1155700</v>
+        <v>-1117800</v>
       </c>
       <c r="H89" s="3">
-        <v>8893500</v>
+        <v>8602400</v>
       </c>
       <c r="I89" s="3">
-        <v>1771700</v>
+        <v>1713700</v>
       </c>
       <c r="J89" s="3">
-        <v>48780800</v>
+        <v>47183700</v>
       </c>
       <c r="K89" s="3">
         <v>53799800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1550300</v>
+        <v>-1499500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1781400</v>
+        <v>-1723000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1156000</v>
+        <v>-1118200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2141800</v>
+        <v>-2071700</v>
       </c>
       <c r="H91" s="3">
-        <v>-3158600</v>
+        <v>-3055200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2848200</v>
+        <v>-2754900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1585500</v>
+        <v>-1533600</v>
       </c>
       <c r="K91" s="3">
         <v>-4131100</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19155400</v>
+        <v>-18528200</v>
       </c>
       <c r="E94" s="3">
-        <v>-86549600</v>
+        <v>-83715800</v>
       </c>
       <c r="F94" s="3">
-        <v>-49651700</v>
+        <v>-48026000</v>
       </c>
       <c r="G94" s="3">
-        <v>-32160200</v>
+        <v>-31107200</v>
       </c>
       <c r="H94" s="3">
-        <v>-93835500</v>
+        <v>-90763100</v>
       </c>
       <c r="I94" s="3">
-        <v>-43819300</v>
+        <v>-42384600</v>
       </c>
       <c r="J94" s="3">
-        <v>19198900</v>
+        <v>18570300</v>
       </c>
       <c r="K94" s="3">
         <v>3772400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1396400</v>
+        <v>-1350600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1395500</v>
+        <v>-1349800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1395700</v>
+        <v>-1350000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1395500</v>
+        <v>-1349800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1392900</v>
+        <v>-1347300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1431400</v>
+        <v>-1384600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1291400</v>
+        <v>-1249200</v>
       </c>
       <c r="K96" s="3">
         <v>-1375600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>63711700</v>
+        <v>61625600</v>
       </c>
       <c r="E100" s="3">
-        <v>90576500</v>
+        <v>87610800</v>
       </c>
       <c r="F100" s="3">
-        <v>24983500</v>
+        <v>24165400</v>
       </c>
       <c r="G100" s="3">
-        <v>34103800</v>
+        <v>32987100</v>
       </c>
       <c r="H100" s="3">
-        <v>87005300</v>
+        <v>84156500</v>
       </c>
       <c r="I100" s="3">
-        <v>40745400</v>
+        <v>39411300</v>
       </c>
       <c r="J100" s="3">
-        <v>-6621900</v>
+        <v>-6405100</v>
       </c>
       <c r="K100" s="3">
         <v>-53986900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1727000</v>
+        <v>1670500</v>
       </c>
       <c r="E101" s="3">
-        <v>-1685300</v>
+        <v>-1630100</v>
       </c>
       <c r="F101" s="3">
-        <v>1511300</v>
+        <v>1461900</v>
       </c>
       <c r="G101" s="3">
-        <v>-101500</v>
+        <v>-98200</v>
       </c>
       <c r="H101" s="3">
-        <v>-87200</v>
+        <v>-84300</v>
       </c>
       <c r="I101" s="3">
-        <v>-205700</v>
+        <v>-199000</v>
       </c>
       <c r="J101" s="3">
-        <v>275400</v>
+        <v>266300</v>
       </c>
       <c r="K101" s="3">
         <v>287800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>49719300</v>
+        <v>48091300</v>
       </c>
       <c r="E102" s="3">
-        <v>-27279500</v>
+        <v>-26386300</v>
       </c>
       <c r="F102" s="3">
-        <v>-18311700</v>
+        <v>-17712100</v>
       </c>
       <c r="G102" s="3">
-        <v>686400</v>
+        <v>663900</v>
       </c>
       <c r="H102" s="3">
-        <v>1976100</v>
+        <v>1911400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1507800</v>
+        <v>-1458500</v>
       </c>
       <c r="J102" s="3">
-        <v>61633200</v>
+        <v>59615200</v>
       </c>
       <c r="K102" s="3">
         <v>3873100</v>

--- a/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>MFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10327000</v>
+        <v>10613000</v>
       </c>
       <c r="E8" s="3">
-        <v>15251800</v>
+        <v>10705700</v>
       </c>
       <c r="F8" s="3">
-        <v>15650800</v>
+        <v>15811100</v>
       </c>
       <c r="G8" s="3">
-        <v>12491800</v>
+        <v>16224700</v>
       </c>
       <c r="H8" s="3">
-        <v>10699000</v>
+        <v>12949900</v>
       </c>
       <c r="I8" s="3">
-        <v>10636200</v>
+        <v>11091400</v>
       </c>
       <c r="J8" s="3">
+        <v>11026300</v>
+      </c>
+      <c r="K8" s="3">
         <v>10415100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12862100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12867300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12991300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,17 +964,20 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-60400</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
+        <v>-58500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-62600</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -972,8 +994,8 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4244900</v>
+        <v>4216800</v>
       </c>
       <c r="E17" s="3">
-        <v>10258100</v>
+        <v>4400600</v>
       </c>
       <c r="F17" s="3">
-        <v>9479100</v>
+        <v>10634300</v>
       </c>
       <c r="G17" s="3">
-        <v>5199300</v>
+        <v>9826700</v>
       </c>
       <c r="H17" s="3">
-        <v>4671200</v>
+        <v>5390000</v>
       </c>
       <c r="I17" s="3">
-        <v>3640900</v>
+        <v>4842500</v>
       </c>
       <c r="J17" s="3">
+        <v>3774400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2367200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2489000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4997300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3552000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6082000</v>
+        <v>6396100</v>
       </c>
       <c r="E18" s="3">
-        <v>4993700</v>
+        <v>6305100</v>
       </c>
       <c r="F18" s="3">
-        <v>6171700</v>
+        <v>5176800</v>
       </c>
       <c r="G18" s="3">
-        <v>7292500</v>
+        <v>6398000</v>
       </c>
       <c r="H18" s="3">
-        <v>6027800</v>
+        <v>7559900</v>
       </c>
       <c r="I18" s="3">
-        <v>6995400</v>
+        <v>6248900</v>
       </c>
       <c r="J18" s="3">
+        <v>7251900</v>
+      </c>
+      <c r="K18" s="3">
         <v>8047800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10373100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7870000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9439300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1211900</v>
+        <v>-8178400</v>
       </c>
       <c r="E20" s="3">
-        <v>-3905400</v>
+        <v>1256300</v>
       </c>
       <c r="F20" s="3">
-        <v>-5568600</v>
+        <v>-4048700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1341800</v>
+        <v>-5772800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2622000</v>
+        <v>-1391000</v>
       </c>
       <c r="I20" s="3">
-        <v>1488600</v>
+        <v>-2718100</v>
       </c>
       <c r="J20" s="3">
+        <v>1543200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1024200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3806900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>132000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3447300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8876300</v>
+        <v>-119600</v>
       </c>
       <c r="E21" s="3">
-        <v>2752900</v>
+        <v>9248000</v>
       </c>
       <c r="F21" s="3">
-        <v>3028800</v>
+        <v>2902500</v>
       </c>
       <c r="G21" s="3">
-        <v>7174300</v>
+        <v>3210800</v>
       </c>
       <c r="H21" s="3">
-        <v>4575200</v>
+        <v>7473100</v>
       </c>
       <c r="I21" s="3">
-        <v>9630900</v>
+        <v>4777100</v>
       </c>
       <c r="J21" s="3">
+        <v>10017600</v>
+      </c>
+      <c r="K21" s="3">
         <v>8120800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8025500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9424400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7491800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7293900</v>
+        <v>-1782300</v>
       </c>
       <c r="E23" s="3">
-        <v>1088200</v>
+        <v>7561400</v>
       </c>
       <c r="F23" s="3">
-        <v>603100</v>
+        <v>1128200</v>
       </c>
       <c r="G23" s="3">
-        <v>5950600</v>
+        <v>625200</v>
       </c>
       <c r="H23" s="3">
-        <v>3405900</v>
+        <v>6168800</v>
       </c>
       <c r="I23" s="3">
-        <v>8483900</v>
+        <v>3530800</v>
       </c>
       <c r="J23" s="3">
+        <v>8795000</v>
+      </c>
+      <c r="K23" s="3">
         <v>7023600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6566100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8002000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5992000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1494000</v>
+        <v>-1036500</v>
       </c>
       <c r="E24" s="3">
-        <v>334500</v>
+        <v>1548800</v>
       </c>
       <c r="F24" s="3">
-        <v>66200</v>
+        <v>346700</v>
       </c>
       <c r="G24" s="3">
-        <v>1684600</v>
+        <v>68600</v>
       </c>
       <c r="H24" s="3">
-        <v>646900</v>
+        <v>1746400</v>
       </c>
       <c r="I24" s="3">
-        <v>2457000</v>
+        <v>670600</v>
       </c>
       <c r="J24" s="3">
+        <v>2547100</v>
+      </c>
+      <c r="K24" s="3">
         <v>2162400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2044000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>125500</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5800000</v>
+        <v>-745800</v>
       </c>
       <c r="E26" s="3">
-        <v>753800</v>
+        <v>6012700</v>
       </c>
       <c r="F26" s="3">
-        <v>536900</v>
+        <v>781400</v>
       </c>
       <c r="G26" s="3">
-        <v>4266000</v>
+        <v>556600</v>
       </c>
       <c r="H26" s="3">
-        <v>2758900</v>
+        <v>4422500</v>
       </c>
       <c r="I26" s="3">
-        <v>6026900</v>
+        <v>2860100</v>
       </c>
       <c r="J26" s="3">
+        <v>6248000</v>
+      </c>
+      <c r="K26" s="3">
         <v>4861200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4522100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7965700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5866600</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4124700</v>
+        <v>-769700</v>
       </c>
       <c r="E27" s="3">
-        <v>1064900</v>
+        <v>4276000</v>
       </c>
       <c r="F27" s="3">
-        <v>598900</v>
+        <v>1103900</v>
       </c>
       <c r="G27" s="3">
-        <v>4095200</v>
+        <v>620900</v>
       </c>
       <c r="H27" s="3">
-        <v>2569700</v>
+        <v>4245400</v>
       </c>
       <c r="I27" s="3">
-        <v>6012800</v>
+        <v>2663900</v>
       </c>
       <c r="J27" s="3">
+        <v>6233300</v>
+      </c>
+      <c r="K27" s="3">
         <v>4303800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4445300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7839400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5855400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1211900</v>
+        <v>8178400</v>
       </c>
       <c r="E32" s="3">
-        <v>3905400</v>
+        <v>-1256300</v>
       </c>
       <c r="F32" s="3">
-        <v>5568600</v>
+        <v>4048700</v>
       </c>
       <c r="G32" s="3">
-        <v>1341800</v>
+        <v>5772800</v>
       </c>
       <c r="H32" s="3">
-        <v>2622000</v>
+        <v>1391000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1488600</v>
+        <v>2718100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1543200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1024200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3806900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-132000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3447300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4124700</v>
+        <v>-769700</v>
       </c>
       <c r="E33" s="3">
-        <v>1064900</v>
+        <v>4276000</v>
       </c>
       <c r="F33" s="3">
-        <v>598900</v>
+        <v>1103900</v>
       </c>
       <c r="G33" s="3">
-        <v>4095200</v>
+        <v>620900</v>
       </c>
       <c r="H33" s="3">
-        <v>2569700</v>
+        <v>4245400</v>
       </c>
       <c r="I33" s="3">
-        <v>6012800</v>
+        <v>2663900</v>
       </c>
       <c r="J33" s="3">
+        <v>6233300</v>
+      </c>
+      <c r="K33" s="3">
         <v>4303800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4445300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7839400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5855400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4124700</v>
+        <v>-769700</v>
       </c>
       <c r="E35" s="3">
-        <v>1064900</v>
+        <v>4276000</v>
       </c>
       <c r="F35" s="3">
-        <v>598900</v>
+        <v>1103900</v>
       </c>
       <c r="G35" s="3">
-        <v>4095200</v>
+        <v>620900</v>
       </c>
       <c r="H35" s="3">
-        <v>2569700</v>
+        <v>4245400</v>
       </c>
       <c r="I35" s="3">
-        <v>6012800</v>
+        <v>2663900</v>
       </c>
       <c r="J35" s="3">
+        <v>6233300</v>
+      </c>
+      <c r="K35" s="3">
         <v>4303800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4445300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7839400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5855400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>345525000</v>
+        <v>383481000</v>
       </c>
       <c r="E41" s="3">
-        <v>297433000</v>
+        <v>358196000</v>
       </c>
       <c r="F41" s="3">
-        <v>323820000</v>
+        <v>308341000</v>
       </c>
       <c r="G41" s="3">
-        <v>341532000</v>
+        <v>335695000</v>
       </c>
       <c r="H41" s="3">
-        <v>337392000</v>
+        <v>354056000</v>
       </c>
       <c r="I41" s="3">
-        <v>259849000</v>
+        <v>349764000</v>
       </c>
       <c r="J41" s="3">
+        <v>269378000</v>
+      </c>
+      <c r="K41" s="3">
         <v>206292000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15339800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11466700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10998300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>319633000</v>
+        <v>330331000</v>
       </c>
       <c r="E42" s="3">
-        <v>366739000</v>
+        <v>331354000</v>
       </c>
       <c r="F42" s="3">
-        <v>279516000</v>
+        <v>380188000</v>
       </c>
       <c r="G42" s="3">
-        <v>282320000</v>
+        <v>289766000</v>
       </c>
       <c r="H42" s="3">
-        <v>289201000</v>
+        <v>292673000</v>
       </c>
       <c r="I42" s="3">
-        <v>316815000</v>
+        <v>299807000</v>
       </c>
       <c r="J42" s="3">
+        <v>328433000</v>
+      </c>
+      <c r="K42" s="3">
         <v>228831000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>549634000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>550699000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>464937000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>2070100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2410200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2725300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3815500</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17179000</v>
+        <v>16715600</v>
       </c>
       <c r="E48" s="3">
-        <v>17507500</v>
+        <v>17809000</v>
       </c>
       <c r="F48" s="3">
-        <v>13477700</v>
+        <v>18149500</v>
       </c>
       <c r="G48" s="3">
-        <v>15003700</v>
+        <v>13972000</v>
       </c>
       <c r="H48" s="3">
-        <v>14472600</v>
+        <v>15554000</v>
       </c>
       <c r="I48" s="3">
-        <v>13031300</v>
+        <v>15003400</v>
       </c>
       <c r="J48" s="3">
+        <v>13509200</v>
+      </c>
+      <c r="K48" s="3">
         <v>7643400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12263600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9871600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9988000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1055100</v>
+        <v>1033700</v>
       </c>
       <c r="E49" s="3">
-        <v>1118000</v>
+        <v>1093800</v>
       </c>
       <c r="F49" s="3">
-        <v>1201000</v>
+        <v>1159000</v>
       </c>
       <c r="G49" s="3">
-        <v>1273600</v>
+        <v>1245000</v>
       </c>
       <c r="H49" s="3">
-        <v>1342300</v>
+        <v>1320300</v>
       </c>
       <c r="I49" s="3">
-        <v>480300</v>
+        <v>1391500</v>
       </c>
       <c r="J49" s="3">
+        <v>497900</v>
+      </c>
+      <c r="K49" s="3">
         <v>4662100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>637300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>638400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>686500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>318800</v>
+        <v>2038300</v>
       </c>
       <c r="E52" s="3">
-        <v>969300</v>
+        <v>330500</v>
       </c>
       <c r="F52" s="3">
-        <v>352900</v>
+        <v>1004800</v>
       </c>
       <c r="G52" s="3">
-        <v>404800</v>
+        <v>365800</v>
       </c>
       <c r="H52" s="3">
-        <v>450400</v>
+        <v>419600</v>
       </c>
       <c r="I52" s="3">
-        <v>406600</v>
+        <v>466900</v>
       </c>
       <c r="J52" s="3">
+        <v>421500</v>
+      </c>
+      <c r="K52" s="3">
         <v>5532500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3662300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5801700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7564000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1571510000</v>
+        <v>1701900000</v>
       </c>
       <c r="E54" s="3">
-        <v>1497540000</v>
+        <v>1629140000</v>
       </c>
       <c r="F54" s="3">
-        <v>1401060000</v>
+        <v>1552460000</v>
       </c>
       <c r="G54" s="3">
-        <v>1448170000</v>
+        <v>1452440000</v>
       </c>
       <c r="H54" s="3">
-        <v>1421240000</v>
+        <v>1501280000</v>
       </c>
       <c r="I54" s="3">
-        <v>1374110000</v>
+        <v>1473350000</v>
       </c>
       <c r="J54" s="3">
+        <v>1424500000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1344860000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1588320000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1615870000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1503910000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,31 +2397,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21131000</v>
+        <v>13976000</v>
       </c>
       <c r="E57" s="3">
-        <v>17981700</v>
+        <v>21905900</v>
       </c>
       <c r="F57" s="3">
-        <v>21377000</v>
+        <v>18641100</v>
       </c>
       <c r="G57" s="3">
-        <v>13234000</v>
+        <v>22160900</v>
       </c>
       <c r="H57" s="3">
-        <v>13343000</v>
+        <v>13719300</v>
       </c>
       <c r="I57" s="3">
-        <v>23575500</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
+        <v>13832300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>24440000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
@@ -2303,9 +2433,12 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6292400</v>
+        <v>6316700</v>
       </c>
       <c r="E59" s="3">
-        <v>6701100</v>
+        <v>6523200</v>
       </c>
       <c r="F59" s="3">
-        <v>2462000</v>
+        <v>6946900</v>
       </c>
       <c r="G59" s="3">
-        <v>2108500</v>
+        <v>2552200</v>
       </c>
       <c r="H59" s="3">
-        <v>2005800</v>
+        <v>2185800</v>
       </c>
       <c r="I59" s="3">
-        <v>1972100</v>
+        <v>2079400</v>
       </c>
       <c r="J59" s="3">
+        <v>2044400</v>
+      </c>
+      <c r="K59" s="3">
         <v>424500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1963800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1773800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1902700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82998900</v>
+        <v>92449900</v>
       </c>
       <c r="E61" s="3">
-        <v>73354200</v>
+        <v>86042600</v>
       </c>
       <c r="F61" s="3">
-        <v>81743400</v>
+        <v>76044200</v>
       </c>
       <c r="G61" s="3">
-        <v>91852600</v>
+        <v>84741100</v>
       </c>
       <c r="H61" s="3">
-        <v>103014000</v>
+        <v>95220900</v>
       </c>
       <c r="I61" s="3">
-        <v>104688000</v>
+        <v>106791000</v>
       </c>
       <c r="J61" s="3">
+        <v>108527000</v>
+      </c>
+      <c r="K61" s="3">
         <v>93656100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>89079600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>79572100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>76494800</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>545600</v>
+        <v>213400</v>
       </c>
       <c r="E62" s="3">
-        <v>183400</v>
+        <v>565600</v>
       </c>
       <c r="F62" s="3">
-        <v>766600</v>
+        <v>190200</v>
       </c>
       <c r="G62" s="3">
-        <v>2171000</v>
+        <v>794700</v>
       </c>
       <c r="H62" s="3">
-        <v>996000</v>
+        <v>2250600</v>
       </c>
       <c r="I62" s="3">
-        <v>1431200</v>
+        <v>1032500</v>
       </c>
       <c r="J62" s="3">
+        <v>1483700</v>
+      </c>
+      <c r="K62" s="3">
         <v>5104500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>129300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>143300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1506950000</v>
+        <v>1636380000</v>
       </c>
       <c r="E66" s="3">
-        <v>1437190000</v>
+        <v>1562210000</v>
       </c>
       <c r="F66" s="3">
-        <v>1339190000</v>
+        <v>1489890000</v>
       </c>
       <c r="G66" s="3">
-        <v>1385300000</v>
+        <v>1388300000</v>
       </c>
       <c r="H66" s="3">
-        <v>1362660000</v>
+        <v>1436100000</v>
       </c>
       <c r="I66" s="3">
-        <v>1317290000</v>
+        <v>1412630000</v>
       </c>
       <c r="J66" s="3">
+        <v>1365600000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1286980000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1530660000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1564090000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1463490000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2737,23 +2904,26 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>701400</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>727100</v>
+      </c>
+      <c r="K70" s="3">
         <v>1511000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2826400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3411300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3709700</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21038800</v>
+        <v>19592200</v>
       </c>
       <c r="E72" s="3">
-        <v>19148500</v>
+        <v>21810300</v>
       </c>
       <c r="F72" s="3">
-        <v>19430500</v>
+        <v>19850700</v>
       </c>
       <c r="G72" s="3">
-        <v>9260500</v>
+        <v>20143000</v>
       </c>
       <c r="H72" s="3">
-        <v>6515000</v>
+        <v>9600100</v>
       </c>
       <c r="I72" s="3">
-        <v>5294700</v>
+        <v>6753900</v>
       </c>
       <c r="J72" s="3">
+        <v>5488900</v>
+      </c>
+      <c r="K72" s="3">
         <v>19661900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4858800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7985800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14519200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64556100</v>
+        <v>65519500</v>
       </c>
       <c r="E76" s="3">
-        <v>60352700</v>
+        <v>66923500</v>
       </c>
       <c r="F76" s="3">
-        <v>61871000</v>
+        <v>62565900</v>
       </c>
       <c r="G76" s="3">
-        <v>62877100</v>
+        <v>64139900</v>
       </c>
       <c r="H76" s="3">
-        <v>58573000</v>
+        <v>65182900</v>
       </c>
       <c r="I76" s="3">
-        <v>56121800</v>
+        <v>60721000</v>
       </c>
       <c r="J76" s="3">
+        <v>58179800</v>
+      </c>
+      <c r="K76" s="3">
         <v>56378400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54835000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48370900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36706000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4124700</v>
+        <v>-769700</v>
       </c>
       <c r="E81" s="3">
-        <v>1064900</v>
+        <v>4276000</v>
       </c>
       <c r="F81" s="3">
-        <v>598900</v>
+        <v>1103900</v>
       </c>
       <c r="G81" s="3">
-        <v>4095200</v>
+        <v>620900</v>
       </c>
       <c r="H81" s="3">
-        <v>2569700</v>
+        <v>4245400</v>
       </c>
       <c r="I81" s="3">
-        <v>6012800</v>
+        <v>2663900</v>
       </c>
       <c r="J81" s="3">
+        <v>6233300</v>
+      </c>
+      <c r="K81" s="3">
         <v>4303800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4445300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7839400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5855400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1642600</v>
+        <v>1678700</v>
       </c>
       <c r="E83" s="3">
-        <v>1728000</v>
+        <v>1702800</v>
       </c>
       <c r="F83" s="3">
-        <v>2518100</v>
+        <v>1791400</v>
       </c>
       <c r="G83" s="3">
-        <v>1270200</v>
+        <v>2610500</v>
       </c>
       <c r="H83" s="3">
-        <v>1213800</v>
+        <v>1316800</v>
       </c>
       <c r="I83" s="3">
-        <v>1190600</v>
+        <v>1258300</v>
       </c>
       <c r="J83" s="3">
+        <v>1234300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1139000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1457800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1420800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1498100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3323500</v>
+        <v>40410900</v>
       </c>
       <c r="E89" s="3">
-        <v>-28651200</v>
+        <v>3445400</v>
       </c>
       <c r="F89" s="3">
-        <v>4686600</v>
+        <v>-29701900</v>
       </c>
       <c r="G89" s="3">
-        <v>-1117800</v>
+        <v>4858500</v>
       </c>
       <c r="H89" s="3">
-        <v>8602400</v>
+        <v>-1158800</v>
       </c>
       <c r="I89" s="3">
-        <v>1713700</v>
+        <v>8917800</v>
       </c>
       <c r="J89" s="3">
+        <v>1776600</v>
+      </c>
+      <c r="K89" s="3">
         <v>47183700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53799800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11733800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16176500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1499500</v>
+        <v>-1001300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1723000</v>
+        <v>-1554500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1118200</v>
+        <v>-1786200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2071700</v>
+        <v>-1159200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3055200</v>
+        <v>-2147700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2754900</v>
+        <v>-3167200</v>
       </c>
       <c r="J91" s="3">
+        <v>-2856000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1533600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4131100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1458700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1577600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18528200</v>
+        <v>-36868500</v>
       </c>
       <c r="E94" s="3">
-        <v>-83715800</v>
+        <v>-19207700</v>
       </c>
       <c r="F94" s="3">
-        <v>-48026000</v>
+        <v>-86785800</v>
       </c>
       <c r="G94" s="3">
-        <v>-31107200</v>
+        <v>-49787200</v>
       </c>
       <c r="H94" s="3">
-        <v>-90763100</v>
+        <v>-32248000</v>
       </c>
       <c r="I94" s="3">
-        <v>-42384600</v>
+        <v>-94091600</v>
       </c>
       <c r="J94" s="3">
+        <v>-43938900</v>
+      </c>
+      <c r="K94" s="3">
         <v>18570300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3772400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57149400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16659800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1350600</v>
+        <v>-1446400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1349800</v>
+        <v>-1400200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1350000</v>
+        <v>-1399300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1349800</v>
+        <v>-1399500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1347300</v>
+        <v>-1399300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1384600</v>
+        <v>-1396700</v>
       </c>
       <c r="J96" s="3">
+        <v>-1435300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1249200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1375600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1378700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1951800</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>61625600</v>
+        <v>14637100</v>
       </c>
       <c r="E100" s="3">
-        <v>87610800</v>
+        <v>63885500</v>
       </c>
       <c r="F100" s="3">
-        <v>24165400</v>
+        <v>90823600</v>
       </c>
       <c r="G100" s="3">
-        <v>32987100</v>
+        <v>25051600</v>
       </c>
       <c r="H100" s="3">
-        <v>84156500</v>
+        <v>34196800</v>
       </c>
       <c r="I100" s="3">
-        <v>39411300</v>
+        <v>87242700</v>
       </c>
       <c r="J100" s="3">
+        <v>40856600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6405100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-53986900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>69064300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>26811200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1670500</v>
+        <v>7106000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1630100</v>
+        <v>1731700</v>
       </c>
       <c r="F101" s="3">
-        <v>1461900</v>
+        <v>-1689900</v>
       </c>
       <c r="G101" s="3">
-        <v>-98200</v>
+        <v>1515500</v>
       </c>
       <c r="H101" s="3">
-        <v>-84300</v>
+        <v>-101800</v>
       </c>
       <c r="I101" s="3">
-        <v>-199000</v>
+        <v>-87400</v>
       </c>
       <c r="J101" s="3">
+        <v>-206200</v>
+      </c>
+      <c r="K101" s="3">
         <v>266300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>287800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>287300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>48091300</v>
+        <v>25285400</v>
       </c>
       <c r="E102" s="3">
-        <v>-26386300</v>
+        <v>49854900</v>
       </c>
       <c r="F102" s="3">
-        <v>-17712100</v>
+        <v>-27353900</v>
       </c>
       <c r="G102" s="3">
-        <v>663900</v>
+        <v>-18361600</v>
       </c>
       <c r="H102" s="3">
-        <v>1911400</v>
+        <v>688300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1458500</v>
+        <v>1981500</v>
       </c>
       <c r="J102" s="3">
+        <v>-1512000</v>
+      </c>
+      <c r="K102" s="3">
         <v>59615200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3873100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>468400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6037900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10613000</v>
+        <v>10410800</v>
       </c>
       <c r="E8" s="3">
-        <v>10705700</v>
+        <v>10501800</v>
       </c>
       <c r="F8" s="3">
-        <v>15811100</v>
+        <v>15510000</v>
       </c>
       <c r="G8" s="3">
-        <v>16224700</v>
+        <v>15915700</v>
       </c>
       <c r="H8" s="3">
-        <v>12949900</v>
+        <v>12703200</v>
       </c>
       <c r="I8" s="3">
-        <v>11091400</v>
+        <v>10880100</v>
       </c>
       <c r="J8" s="3">
-        <v>11026300</v>
+        <v>10816200</v>
       </c>
       <c r="K8" s="3">
         <v>10415100</v>
@@ -974,10 +974,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-58500</v>
+        <v>-57400</v>
       </c>
       <c r="E15" s="3">
-        <v>-62600</v>
+        <v>-61400</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4216800</v>
+        <v>4136500</v>
       </c>
       <c r="E17" s="3">
-        <v>4400600</v>
+        <v>4316800</v>
       </c>
       <c r="F17" s="3">
-        <v>10634300</v>
+        <v>10431700</v>
       </c>
       <c r="G17" s="3">
-        <v>9826700</v>
+        <v>9639500</v>
       </c>
       <c r="H17" s="3">
-        <v>5390000</v>
+        <v>5287300</v>
       </c>
       <c r="I17" s="3">
-        <v>4842500</v>
+        <v>4750300</v>
       </c>
       <c r="J17" s="3">
-        <v>3774400</v>
+        <v>3702500</v>
       </c>
       <c r="K17" s="3">
         <v>2367200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6396100</v>
+        <v>6274300</v>
       </c>
       <c r="E18" s="3">
-        <v>6305100</v>
+        <v>6185000</v>
       </c>
       <c r="F18" s="3">
-        <v>5176800</v>
+        <v>5078200</v>
       </c>
       <c r="G18" s="3">
-        <v>6398000</v>
+        <v>6276100</v>
       </c>
       <c r="H18" s="3">
-        <v>7559900</v>
+        <v>7415900</v>
       </c>
       <c r="I18" s="3">
-        <v>6248900</v>
+        <v>6129800</v>
       </c>
       <c r="J18" s="3">
-        <v>7251900</v>
+        <v>7113800</v>
       </c>
       <c r="K18" s="3">
         <v>8047800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8178400</v>
+        <v>-8022600</v>
       </c>
       <c r="E20" s="3">
-        <v>1256300</v>
+        <v>1232400</v>
       </c>
       <c r="F20" s="3">
-        <v>-4048700</v>
+        <v>-3971500</v>
       </c>
       <c r="G20" s="3">
-        <v>-5772800</v>
+        <v>-5662900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1391000</v>
+        <v>-1364600</v>
       </c>
       <c r="I20" s="3">
-        <v>-2718100</v>
+        <v>-2666300</v>
       </c>
       <c r="J20" s="3">
-        <v>1543200</v>
+        <v>1513800</v>
       </c>
       <c r="K20" s="3">
         <v>-1024200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-119600</v>
+        <v>-90200</v>
       </c>
       <c r="E21" s="3">
-        <v>9248000</v>
+        <v>9099400</v>
       </c>
       <c r="F21" s="3">
-        <v>2902500</v>
+        <v>2876100</v>
       </c>
       <c r="G21" s="3">
-        <v>3210800</v>
+        <v>3191800</v>
       </c>
       <c r="H21" s="3">
-        <v>7473100</v>
+        <v>7352000</v>
       </c>
       <c r="I21" s="3">
-        <v>4777100</v>
+        <v>4706400</v>
       </c>
       <c r="J21" s="3">
-        <v>10017600</v>
+        <v>9846700</v>
       </c>
       <c r="K21" s="3">
         <v>8120800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1782300</v>
+        <v>-1748300</v>
       </c>
       <c r="E23" s="3">
-        <v>7561400</v>
+        <v>7417400</v>
       </c>
       <c r="F23" s="3">
-        <v>1128200</v>
+        <v>1106700</v>
       </c>
       <c r="G23" s="3">
-        <v>625200</v>
+        <v>613300</v>
       </c>
       <c r="H23" s="3">
-        <v>6168800</v>
+        <v>6051300</v>
       </c>
       <c r="I23" s="3">
-        <v>3530800</v>
+        <v>3463500</v>
       </c>
       <c r="J23" s="3">
-        <v>8795000</v>
+        <v>8627500</v>
       </c>
       <c r="K23" s="3">
         <v>7023600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1036500</v>
+        <v>-1016700</v>
       </c>
       <c r="E24" s="3">
-        <v>1548800</v>
+        <v>1519300</v>
       </c>
       <c r="F24" s="3">
-        <v>346700</v>
+        <v>340100</v>
       </c>
       <c r="G24" s="3">
-        <v>68600</v>
+        <v>67300</v>
       </c>
       <c r="H24" s="3">
-        <v>1746400</v>
+        <v>1713100</v>
       </c>
       <c r="I24" s="3">
-        <v>670600</v>
+        <v>657900</v>
       </c>
       <c r="J24" s="3">
-        <v>2547100</v>
+        <v>2498600</v>
       </c>
       <c r="K24" s="3">
         <v>2162400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-745800</v>
+        <v>-731600</v>
       </c>
       <c r="E26" s="3">
-        <v>6012700</v>
+        <v>5898100</v>
       </c>
       <c r="F26" s="3">
-        <v>781400</v>
+        <v>766500</v>
       </c>
       <c r="G26" s="3">
-        <v>556600</v>
+        <v>546000</v>
       </c>
       <c r="H26" s="3">
-        <v>4422500</v>
+        <v>4338200</v>
       </c>
       <c r="I26" s="3">
-        <v>2860100</v>
+        <v>2805600</v>
       </c>
       <c r="J26" s="3">
-        <v>6248000</v>
+        <v>6129000</v>
       </c>
       <c r="K26" s="3">
         <v>4861200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-769700</v>
+        <v>-755000</v>
       </c>
       <c r="E27" s="3">
-        <v>4276000</v>
+        <v>4194500</v>
       </c>
       <c r="F27" s="3">
-        <v>1103900</v>
+        <v>1082900</v>
       </c>
       <c r="G27" s="3">
-        <v>620900</v>
+        <v>609000</v>
       </c>
       <c r="H27" s="3">
-        <v>4245400</v>
+        <v>4164600</v>
       </c>
       <c r="I27" s="3">
-        <v>2663900</v>
+        <v>2613200</v>
       </c>
       <c r="J27" s="3">
-        <v>6233300</v>
+        <v>6114500</v>
       </c>
       <c r="K27" s="3">
         <v>4303800</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8178400</v>
+        <v>8022600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1256300</v>
+        <v>-1232400</v>
       </c>
       <c r="F32" s="3">
-        <v>4048700</v>
+        <v>3971500</v>
       </c>
       <c r="G32" s="3">
-        <v>5772800</v>
+        <v>5662900</v>
       </c>
       <c r="H32" s="3">
-        <v>1391000</v>
+        <v>1364600</v>
       </c>
       <c r="I32" s="3">
-        <v>2718100</v>
+        <v>2666300</v>
       </c>
       <c r="J32" s="3">
-        <v>-1543200</v>
+        <v>-1513800</v>
       </c>
       <c r="K32" s="3">
         <v>1024200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-769700</v>
+        <v>-755000</v>
       </c>
       <c r="E33" s="3">
-        <v>4276000</v>
+        <v>4194500</v>
       </c>
       <c r="F33" s="3">
-        <v>1103900</v>
+        <v>1082900</v>
       </c>
       <c r="G33" s="3">
-        <v>620900</v>
+        <v>609000</v>
       </c>
       <c r="H33" s="3">
-        <v>4245400</v>
+        <v>4164600</v>
       </c>
       <c r="I33" s="3">
-        <v>2663900</v>
+        <v>2613200</v>
       </c>
       <c r="J33" s="3">
-        <v>6233300</v>
+        <v>6114500</v>
       </c>
       <c r="K33" s="3">
         <v>4303800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-769700</v>
+        <v>-755000</v>
       </c>
       <c r="E35" s="3">
-        <v>4276000</v>
+        <v>4194500</v>
       </c>
       <c r="F35" s="3">
-        <v>1103900</v>
+        <v>1082900</v>
       </c>
       <c r="G35" s="3">
-        <v>620900</v>
+        <v>609000</v>
       </c>
       <c r="H35" s="3">
-        <v>4245400</v>
+        <v>4164600</v>
       </c>
       <c r="I35" s="3">
-        <v>2663900</v>
+        <v>2613200</v>
       </c>
       <c r="J35" s="3">
-        <v>6233300</v>
+        <v>6114500</v>
       </c>
       <c r="K35" s="3">
         <v>4303800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>383481000</v>
+        <v>376177000</v>
       </c>
       <c r="E41" s="3">
-        <v>358196000</v>
+        <v>351373000</v>
       </c>
       <c r="F41" s="3">
-        <v>308341000</v>
+        <v>302468000</v>
       </c>
       <c r="G41" s="3">
-        <v>335695000</v>
+        <v>329300000</v>
       </c>
       <c r="H41" s="3">
-        <v>354056000</v>
+        <v>347312000</v>
       </c>
       <c r="I41" s="3">
-        <v>349764000</v>
+        <v>343102000</v>
       </c>
       <c r="J41" s="3">
-        <v>269378000</v>
+        <v>264247000</v>
       </c>
       <c r="K41" s="3">
         <v>206292000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>330331000</v>
+        <v>324039000</v>
       </c>
       <c r="E42" s="3">
-        <v>331354000</v>
+        <v>325043000</v>
       </c>
       <c r="F42" s="3">
-        <v>380188000</v>
+        <v>372946000</v>
       </c>
       <c r="G42" s="3">
-        <v>289766000</v>
+        <v>284247000</v>
       </c>
       <c r="H42" s="3">
-        <v>292673000</v>
+        <v>287098000</v>
       </c>
       <c r="I42" s="3">
-        <v>299807000</v>
+        <v>294096000</v>
       </c>
       <c r="J42" s="3">
-        <v>328433000</v>
+        <v>322177000</v>
       </c>
       <c r="K42" s="3">
         <v>228831000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16715600</v>
+        <v>16397300</v>
       </c>
       <c r="E48" s="3">
-        <v>17809000</v>
+        <v>17469800</v>
       </c>
       <c r="F48" s="3">
-        <v>18149500</v>
+        <v>17803800</v>
       </c>
       <c r="G48" s="3">
-        <v>13972000</v>
+        <v>13705900</v>
       </c>
       <c r="H48" s="3">
-        <v>15554000</v>
+        <v>15257700</v>
       </c>
       <c r="I48" s="3">
-        <v>15003400</v>
+        <v>14717600</v>
       </c>
       <c r="J48" s="3">
-        <v>13509200</v>
+        <v>13251900</v>
       </c>
       <c r="K48" s="3">
         <v>7643400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1033700</v>
+        <v>1014000</v>
       </c>
       <c r="E49" s="3">
-        <v>1093800</v>
+        <v>1073000</v>
       </c>
       <c r="F49" s="3">
-        <v>1159000</v>
+        <v>1136900</v>
       </c>
       <c r="G49" s="3">
-        <v>1245000</v>
+        <v>1221300</v>
       </c>
       <c r="H49" s="3">
-        <v>1320300</v>
+        <v>1295100</v>
       </c>
       <c r="I49" s="3">
-        <v>1391500</v>
+        <v>1365000</v>
       </c>
       <c r="J49" s="3">
-        <v>497900</v>
+        <v>488500</v>
       </c>
       <c r="K49" s="3">
         <v>4662100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2038300</v>
+        <v>1999500</v>
       </c>
       <c r="E52" s="3">
-        <v>330500</v>
+        <v>324200</v>
       </c>
       <c r="F52" s="3">
-        <v>1004800</v>
+        <v>985700</v>
       </c>
       <c r="G52" s="3">
-        <v>365800</v>
+        <v>358900</v>
       </c>
       <c r="H52" s="3">
-        <v>419600</v>
+        <v>411600</v>
       </c>
       <c r="I52" s="3">
-        <v>466900</v>
+        <v>458000</v>
       </c>
       <c r="J52" s="3">
-        <v>421500</v>
+        <v>413500</v>
       </c>
       <c r="K52" s="3">
         <v>5532500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1701900000</v>
+        <v>1669480000</v>
       </c>
       <c r="E54" s="3">
-        <v>1629140000</v>
+        <v>1598110000</v>
       </c>
       <c r="F54" s="3">
-        <v>1552460000</v>
+        <v>1522890000</v>
       </c>
       <c r="G54" s="3">
-        <v>1452440000</v>
+        <v>1424780000</v>
       </c>
       <c r="H54" s="3">
-        <v>1501280000</v>
+        <v>1472680000</v>
       </c>
       <c r="I54" s="3">
-        <v>1473350000</v>
+        <v>1445290000</v>
       </c>
       <c r="J54" s="3">
-        <v>1424500000</v>
+        <v>1397370000</v>
       </c>
       <c r="K54" s="3">
         <v>1344860000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13976000</v>
+        <v>13709800</v>
       </c>
       <c r="E57" s="3">
-        <v>21905900</v>
+        <v>21488600</v>
       </c>
       <c r="F57" s="3">
-        <v>18641100</v>
+        <v>18286000</v>
       </c>
       <c r="G57" s="3">
-        <v>22160900</v>
+        <v>21738800</v>
       </c>
       <c r="H57" s="3">
-        <v>13719300</v>
+        <v>13458000</v>
       </c>
       <c r="I57" s="3">
-        <v>13832300</v>
+        <v>13568900</v>
       </c>
       <c r="J57" s="3">
-        <v>24440000</v>
+        <v>23974500</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6316700</v>
+        <v>6196400</v>
       </c>
       <c r="E59" s="3">
-        <v>6523200</v>
+        <v>6398900</v>
       </c>
       <c r="F59" s="3">
-        <v>6946900</v>
+        <v>6814500</v>
       </c>
       <c r="G59" s="3">
-        <v>2552200</v>
+        <v>2503600</v>
       </c>
       <c r="H59" s="3">
-        <v>2185800</v>
+        <v>2144200</v>
       </c>
       <c r="I59" s="3">
-        <v>2079400</v>
+        <v>2039800</v>
       </c>
       <c r="J59" s="3">
-        <v>2044400</v>
+        <v>2005500</v>
       </c>
       <c r="K59" s="3">
         <v>424500</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>92449900</v>
+        <v>90688900</v>
       </c>
       <c r="E61" s="3">
-        <v>86042600</v>
+        <v>84403700</v>
       </c>
       <c r="F61" s="3">
-        <v>76044200</v>
+        <v>74595800</v>
       </c>
       <c r="G61" s="3">
-        <v>84741100</v>
+        <v>83127000</v>
       </c>
       <c r="H61" s="3">
-        <v>95220900</v>
+        <v>93407200</v>
       </c>
       <c r="I61" s="3">
-        <v>106791000</v>
+        <v>104757000</v>
       </c>
       <c r="J61" s="3">
-        <v>108527000</v>
+        <v>106459000</v>
       </c>
       <c r="K61" s="3">
         <v>93656100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>213400</v>
+        <v>209300</v>
       </c>
       <c r="E62" s="3">
-        <v>565600</v>
+        <v>554900</v>
       </c>
       <c r="F62" s="3">
-        <v>190200</v>
+        <v>186600</v>
       </c>
       <c r="G62" s="3">
-        <v>794700</v>
+        <v>779500</v>
       </c>
       <c r="H62" s="3">
-        <v>2250600</v>
+        <v>2207700</v>
       </c>
       <c r="I62" s="3">
-        <v>1032500</v>
+        <v>1012800</v>
       </c>
       <c r="J62" s="3">
-        <v>1483700</v>
+        <v>1455400</v>
       </c>
       <c r="K62" s="3">
         <v>5104500</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1636380000</v>
+        <v>1605210000</v>
       </c>
       <c r="E66" s="3">
-        <v>1562210000</v>
+        <v>1532460000</v>
       </c>
       <c r="F66" s="3">
-        <v>1489890000</v>
+        <v>1461510000</v>
       </c>
       <c r="G66" s="3">
-        <v>1388300000</v>
+        <v>1361860000</v>
       </c>
       <c r="H66" s="3">
-        <v>1436100000</v>
+        <v>1408740000</v>
       </c>
       <c r="I66" s="3">
-        <v>1412630000</v>
+        <v>1385730000</v>
       </c>
       <c r="J66" s="3">
-        <v>1365600000</v>
+        <v>1339590000</v>
       </c>
       <c r="K66" s="3">
         <v>1286980000</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>727100</v>
+        <v>713200</v>
       </c>
       <c r="K70" s="3">
         <v>1511000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19592200</v>
+        <v>19219000</v>
       </c>
       <c r="E72" s="3">
-        <v>21810300</v>
+        <v>21394800</v>
       </c>
       <c r="F72" s="3">
-        <v>19850700</v>
+        <v>19472600</v>
       </c>
       <c r="G72" s="3">
-        <v>20143000</v>
+        <v>19759300</v>
       </c>
       <c r="H72" s="3">
-        <v>9600100</v>
+        <v>9417300</v>
       </c>
       <c r="I72" s="3">
-        <v>6753900</v>
+        <v>6625200</v>
       </c>
       <c r="J72" s="3">
-        <v>5488900</v>
+        <v>5384300</v>
       </c>
       <c r="K72" s="3">
         <v>19661900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65519500</v>
+        <v>64271500</v>
       </c>
       <c r="E76" s="3">
-        <v>66923500</v>
+        <v>65648800</v>
       </c>
       <c r="F76" s="3">
-        <v>62565900</v>
+        <v>61374200</v>
       </c>
       <c r="G76" s="3">
-        <v>64139900</v>
+        <v>62918200</v>
       </c>
       <c r="H76" s="3">
-        <v>65182900</v>
+        <v>63941300</v>
       </c>
       <c r="I76" s="3">
-        <v>60721000</v>
+        <v>59564400</v>
       </c>
       <c r="J76" s="3">
-        <v>58179800</v>
+        <v>57071700</v>
       </c>
       <c r="K76" s="3">
         <v>56378400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-769700</v>
+        <v>-755000</v>
       </c>
       <c r="E81" s="3">
-        <v>4276000</v>
+        <v>4194500</v>
       </c>
       <c r="F81" s="3">
-        <v>1103900</v>
+        <v>1082900</v>
       </c>
       <c r="G81" s="3">
-        <v>620900</v>
+        <v>609000</v>
       </c>
       <c r="H81" s="3">
-        <v>4245400</v>
+        <v>4164600</v>
       </c>
       <c r="I81" s="3">
-        <v>2663900</v>
+        <v>2613200</v>
       </c>
       <c r="J81" s="3">
-        <v>6233300</v>
+        <v>6114500</v>
       </c>
       <c r="K81" s="3">
         <v>4303800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1678700</v>
+        <v>1646700</v>
       </c>
       <c r="E83" s="3">
-        <v>1702800</v>
+        <v>1670400</v>
       </c>
       <c r="F83" s="3">
-        <v>1791400</v>
+        <v>1757300</v>
       </c>
       <c r="G83" s="3">
-        <v>2610500</v>
+        <v>2560700</v>
       </c>
       <c r="H83" s="3">
-        <v>1316800</v>
+        <v>1291700</v>
       </c>
       <c r="I83" s="3">
-        <v>1258300</v>
+        <v>1234400</v>
       </c>
       <c r="J83" s="3">
-        <v>1234300</v>
+        <v>1210800</v>
       </c>
       <c r="K83" s="3">
         <v>1139000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40410900</v>
+        <v>39641200</v>
       </c>
       <c r="E89" s="3">
-        <v>3445400</v>
+        <v>3379700</v>
       </c>
       <c r="F89" s="3">
-        <v>-29701900</v>
+        <v>-29136100</v>
       </c>
       <c r="G89" s="3">
-        <v>4858500</v>
+        <v>4765900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1158800</v>
+        <v>-1136700</v>
       </c>
       <c r="I89" s="3">
-        <v>8917800</v>
+        <v>8748000</v>
       </c>
       <c r="J89" s="3">
-        <v>1776600</v>
+        <v>1742700</v>
       </c>
       <c r="K89" s="3">
         <v>47183700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1001300</v>
+        <v>-982300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1554500</v>
+        <v>-1524900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1786200</v>
+        <v>-1752200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1159200</v>
+        <v>-1137100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2147700</v>
+        <v>-2106800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3167200</v>
+        <v>-3106900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2856000</v>
+        <v>-2801600</v>
       </c>
       <c r="K91" s="3">
         <v>-1533600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36868500</v>
+        <v>-36166300</v>
       </c>
       <c r="E94" s="3">
-        <v>-19207700</v>
+        <v>-18841800</v>
       </c>
       <c r="F94" s="3">
-        <v>-86785800</v>
+        <v>-85132700</v>
       </c>
       <c r="G94" s="3">
-        <v>-49787200</v>
+        <v>-48838900</v>
       </c>
       <c r="H94" s="3">
-        <v>-32248000</v>
+        <v>-31633700</v>
       </c>
       <c r="I94" s="3">
-        <v>-94091600</v>
+        <v>-92299300</v>
       </c>
       <c r="J94" s="3">
-        <v>-43938900</v>
+        <v>-43101900</v>
       </c>
       <c r="K94" s="3">
         <v>18570300</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1446400</v>
+        <v>-1418800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1400200</v>
+        <v>-1373500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1399300</v>
+        <v>-1372700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1399500</v>
+        <v>-1372900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1399300</v>
+        <v>-1372700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1396700</v>
+        <v>-1370100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1435300</v>
+        <v>-1408000</v>
       </c>
       <c r="K96" s="3">
         <v>-1249200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>14637100</v>
+        <v>14358300</v>
       </c>
       <c r="E100" s="3">
-        <v>63885500</v>
+        <v>62668700</v>
       </c>
       <c r="F100" s="3">
-        <v>90823600</v>
+        <v>89093600</v>
       </c>
       <c r="G100" s="3">
-        <v>25051600</v>
+        <v>24574500</v>
       </c>
       <c r="H100" s="3">
-        <v>34196800</v>
+        <v>33545400</v>
       </c>
       <c r="I100" s="3">
-        <v>87242700</v>
+        <v>85580900</v>
       </c>
       <c r="J100" s="3">
-        <v>40856600</v>
+        <v>40078300</v>
       </c>
       <c r="K100" s="3">
         <v>-6405100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7106000</v>
+        <v>6970600</v>
       </c>
       <c r="E101" s="3">
-        <v>1731700</v>
+        <v>1698700</v>
       </c>
       <c r="F101" s="3">
-        <v>-1689900</v>
+        <v>-1657700</v>
       </c>
       <c r="G101" s="3">
-        <v>1515500</v>
+        <v>1486600</v>
       </c>
       <c r="H101" s="3">
-        <v>-101800</v>
+        <v>-99800</v>
       </c>
       <c r="I101" s="3">
-        <v>-87400</v>
+        <v>-85800</v>
       </c>
       <c r="J101" s="3">
-        <v>-206200</v>
+        <v>-202300</v>
       </c>
       <c r="K101" s="3">
         <v>266300</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25285400</v>
+        <v>24803800</v>
       </c>
       <c r="E102" s="3">
-        <v>49854900</v>
+        <v>48905300</v>
       </c>
       <c r="F102" s="3">
-        <v>-27353900</v>
+        <v>-26832900</v>
       </c>
       <c r="G102" s="3">
-        <v>-18361600</v>
+        <v>-18011900</v>
       </c>
       <c r="H102" s="3">
-        <v>688300</v>
+        <v>675200</v>
       </c>
       <c r="I102" s="3">
-        <v>1981500</v>
+        <v>1943800</v>
       </c>
       <c r="J102" s="3">
-        <v>-1512000</v>
+        <v>-1483200</v>
       </c>
       <c r="K102" s="3">
         <v>59615200</v>

--- a/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>MFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10410800</v>
+        <v>23281000</v>
       </c>
       <c r="E8" s="3">
-        <v>10501800</v>
+        <v>9919900</v>
       </c>
       <c r="F8" s="3">
-        <v>15510000</v>
+        <v>10006500</v>
       </c>
       <c r="G8" s="3">
-        <v>15915700</v>
+        <v>14778600</v>
       </c>
       <c r="H8" s="3">
-        <v>12703200</v>
+        <v>15165100</v>
       </c>
       <c r="I8" s="3">
-        <v>10880100</v>
+        <v>12104200</v>
       </c>
       <c r="J8" s="3">
+        <v>10367000</v>
+      </c>
+      <c r="K8" s="3">
         <v>10816200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10415100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12862100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12867300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12991300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,23 +986,26 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-57400</v>
+        <v>-52900</v>
       </c>
       <c r="E15" s="3">
-        <v>-61400</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+        <v>-54700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-63700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -997,8 +1019,8 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4136500</v>
+        <v>15666300</v>
       </c>
       <c r="E17" s="3">
-        <v>4316800</v>
+        <v>3941500</v>
       </c>
       <c r="F17" s="3">
-        <v>10431700</v>
+        <v>4113200</v>
       </c>
       <c r="G17" s="3">
-        <v>9639500</v>
+        <v>9939800</v>
       </c>
       <c r="H17" s="3">
-        <v>5287300</v>
+        <v>9185000</v>
       </c>
       <c r="I17" s="3">
-        <v>4750300</v>
+        <v>5038000</v>
       </c>
       <c r="J17" s="3">
+        <v>4526300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3702500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2367200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2489000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4997300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3552000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6274300</v>
+        <v>7614700</v>
       </c>
       <c r="E18" s="3">
-        <v>6185000</v>
+        <v>5978400</v>
       </c>
       <c r="F18" s="3">
-        <v>5078200</v>
+        <v>5893300</v>
       </c>
       <c r="G18" s="3">
-        <v>6276100</v>
+        <v>4838700</v>
       </c>
       <c r="H18" s="3">
-        <v>7415900</v>
+        <v>5980200</v>
       </c>
       <c r="I18" s="3">
-        <v>6129800</v>
+        <v>7066200</v>
       </c>
       <c r="J18" s="3">
+        <v>5840800</v>
+      </c>
+      <c r="K18" s="3">
         <v>7113800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8047800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10373100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7870000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9439300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8022600</v>
+        <v>-7139500</v>
       </c>
       <c r="E20" s="3">
-        <v>1232400</v>
+        <v>-7644300</v>
       </c>
       <c r="F20" s="3">
-        <v>-3971500</v>
+        <v>1174300</v>
       </c>
       <c r="G20" s="3">
-        <v>-5662900</v>
+        <v>-3784300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1364600</v>
+        <v>-5395800</v>
       </c>
       <c r="I20" s="3">
-        <v>-2666300</v>
+        <v>-1300200</v>
       </c>
       <c r="J20" s="3">
+        <v>-2540600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1513800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1024200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3806900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>132000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3447300</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-90200</v>
+        <v>2117100</v>
       </c>
       <c r="E21" s="3">
-        <v>9099400</v>
+        <v>-96800</v>
       </c>
       <c r="F21" s="3">
-        <v>2876100</v>
+        <v>8659200</v>
       </c>
       <c r="G21" s="3">
-        <v>3191800</v>
+        <v>2728900</v>
       </c>
       <c r="H21" s="3">
-        <v>7352000</v>
+        <v>3024300</v>
       </c>
       <c r="I21" s="3">
-        <v>4706400</v>
+        <v>6996800</v>
       </c>
       <c r="J21" s="3">
+        <v>4476300</v>
+      </c>
+      <c r="K21" s="3">
         <v>9846700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8120800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8025500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9424400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7491800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1748300</v>
+        <v>475200</v>
       </c>
       <c r="E23" s="3">
-        <v>7417400</v>
+        <v>-1665900</v>
       </c>
       <c r="F23" s="3">
-        <v>1106700</v>
+        <v>7067600</v>
       </c>
       <c r="G23" s="3">
-        <v>613300</v>
+        <v>1054500</v>
       </c>
       <c r="H23" s="3">
-        <v>6051300</v>
+        <v>584400</v>
       </c>
       <c r="I23" s="3">
-        <v>3463500</v>
+        <v>5766000</v>
       </c>
       <c r="J23" s="3">
+        <v>3300200</v>
+      </c>
+      <c r="K23" s="3">
         <v>8627500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7023600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6566100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8002000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5992000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1016700</v>
+        <v>241400</v>
       </c>
       <c r="E24" s="3">
-        <v>1519300</v>
+        <v>-968800</v>
       </c>
       <c r="F24" s="3">
-        <v>340100</v>
+        <v>1447600</v>
       </c>
       <c r="G24" s="3">
-        <v>67300</v>
+        <v>324100</v>
       </c>
       <c r="H24" s="3">
-        <v>1713100</v>
+        <v>64100</v>
       </c>
       <c r="I24" s="3">
-        <v>657900</v>
+        <v>1632300</v>
       </c>
       <c r="J24" s="3">
+        <v>626800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2498600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2162400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2044000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>125500</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-731600</v>
+        <v>233800</v>
       </c>
       <c r="E26" s="3">
-        <v>5898100</v>
+        <v>-697100</v>
       </c>
       <c r="F26" s="3">
-        <v>766500</v>
+        <v>5620000</v>
       </c>
       <c r="G26" s="3">
-        <v>546000</v>
+        <v>730400</v>
       </c>
       <c r="H26" s="3">
-        <v>4338200</v>
+        <v>520200</v>
       </c>
       <c r="I26" s="3">
-        <v>2805600</v>
+        <v>4133600</v>
       </c>
       <c r="J26" s="3">
+        <v>2673300</v>
+      </c>
+      <c r="K26" s="3">
         <v>6129000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4861200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4522100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7965700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5866600</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-755000</v>
+        <v>-96200</v>
       </c>
       <c r="E27" s="3">
-        <v>4194500</v>
+        <v>-719400</v>
       </c>
       <c r="F27" s="3">
-        <v>1082900</v>
+        <v>3996700</v>
       </c>
       <c r="G27" s="3">
-        <v>609000</v>
+        <v>1031800</v>
       </c>
       <c r="H27" s="3">
-        <v>4164600</v>
+        <v>580300</v>
       </c>
       <c r="I27" s="3">
-        <v>2613200</v>
+        <v>3968200</v>
       </c>
       <c r="J27" s="3">
+        <v>2490000</v>
+      </c>
+      <c r="K27" s="3">
         <v>6114500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4303800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4445300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7839400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5855400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8022600</v>
+        <v>7139500</v>
       </c>
       <c r="E32" s="3">
-        <v>-1232400</v>
+        <v>7644300</v>
       </c>
       <c r="F32" s="3">
-        <v>3971500</v>
+        <v>-1174300</v>
       </c>
       <c r="G32" s="3">
-        <v>5662900</v>
+        <v>3784300</v>
       </c>
       <c r="H32" s="3">
-        <v>1364600</v>
+        <v>5395800</v>
       </c>
       <c r="I32" s="3">
-        <v>2666300</v>
+        <v>1300200</v>
       </c>
       <c r="J32" s="3">
+        <v>2540600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1513800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1024200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3806900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-132000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3447300</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-755000</v>
+        <v>-96200</v>
       </c>
       <c r="E33" s="3">
-        <v>4194500</v>
+        <v>-719400</v>
       </c>
       <c r="F33" s="3">
-        <v>1082900</v>
+        <v>3996700</v>
       </c>
       <c r="G33" s="3">
-        <v>609000</v>
+        <v>1031800</v>
       </c>
       <c r="H33" s="3">
-        <v>4164600</v>
+        <v>580300</v>
       </c>
       <c r="I33" s="3">
-        <v>2613200</v>
+        <v>3968200</v>
       </c>
       <c r="J33" s="3">
+        <v>2490000</v>
+      </c>
+      <c r="K33" s="3">
         <v>6114500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4303800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4445300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7839400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5855400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-755000</v>
+        <v>-96200</v>
       </c>
       <c r="E35" s="3">
-        <v>4194500</v>
+        <v>-719400</v>
       </c>
       <c r="F35" s="3">
-        <v>1082900</v>
+        <v>3996700</v>
       </c>
       <c r="G35" s="3">
-        <v>609000</v>
+        <v>1031800</v>
       </c>
       <c r="H35" s="3">
-        <v>4164600</v>
+        <v>580300</v>
       </c>
       <c r="I35" s="3">
-        <v>2613200</v>
+        <v>3968200</v>
       </c>
       <c r="J35" s="3">
+        <v>2490000</v>
+      </c>
+      <c r="K35" s="3">
         <v>6114500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4303800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4445300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7839400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5855400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>376177000</v>
+        <v>467107000</v>
       </c>
       <c r="E41" s="3">
-        <v>351373000</v>
+        <v>358437000</v>
       </c>
       <c r="F41" s="3">
-        <v>302468000</v>
+        <v>334803000</v>
       </c>
       <c r="G41" s="3">
-        <v>329300000</v>
+        <v>288204000</v>
       </c>
       <c r="H41" s="3">
-        <v>347312000</v>
+        <v>313772000</v>
       </c>
       <c r="I41" s="3">
-        <v>343102000</v>
+        <v>330934000</v>
       </c>
       <c r="J41" s="3">
+        <v>326923000</v>
+      </c>
+      <c r="K41" s="3">
         <v>264247000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>206292000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15339800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11466700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10998300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>324039000</v>
+        <v>344842000</v>
       </c>
       <c r="E42" s="3">
-        <v>325043000</v>
+        <v>308759000</v>
       </c>
       <c r="F42" s="3">
-        <v>372946000</v>
+        <v>309715000</v>
       </c>
       <c r="G42" s="3">
-        <v>284247000</v>
+        <v>355360000</v>
       </c>
       <c r="H42" s="3">
-        <v>287098000</v>
+        <v>270843000</v>
       </c>
       <c r="I42" s="3">
-        <v>294096000</v>
+        <v>273560000</v>
       </c>
       <c r="J42" s="3">
+        <v>280227000</v>
+      </c>
+      <c r="K42" s="3">
         <v>322177000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>228831000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>549634000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>550699000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>464937000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,9 +2152,12 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2079,98 +2183,107 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>2070100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2410200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2725300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3815500</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16397300</v>
+        <v>15138400</v>
       </c>
       <c r="E48" s="3">
-        <v>17469800</v>
+        <v>15624000</v>
       </c>
       <c r="F48" s="3">
-        <v>17803800</v>
+        <v>16645900</v>
       </c>
       <c r="G48" s="3">
-        <v>13705900</v>
+        <v>16964200</v>
       </c>
       <c r="H48" s="3">
-        <v>15257700</v>
+        <v>13059500</v>
       </c>
       <c r="I48" s="3">
-        <v>14717600</v>
+        <v>14538200</v>
       </c>
       <c r="J48" s="3">
+        <v>14023500</v>
+      </c>
+      <c r="K48" s="3">
         <v>13251900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7643400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12263600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9871600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9988000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1014000</v>
+        <v>945400</v>
       </c>
       <c r="E49" s="3">
-        <v>1073000</v>
+        <v>966200</v>
       </c>
       <c r="F49" s="3">
-        <v>1136900</v>
+        <v>1022400</v>
       </c>
       <c r="G49" s="3">
-        <v>1221300</v>
+        <v>1083300</v>
       </c>
       <c r="H49" s="3">
-        <v>1295100</v>
+        <v>1163700</v>
       </c>
       <c r="I49" s="3">
-        <v>1365000</v>
+        <v>1234100</v>
       </c>
       <c r="J49" s="3">
+        <v>1300600</v>
+      </c>
+      <c r="K49" s="3">
         <v>488500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4662100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>637300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>638400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>686500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1999500</v>
+        <v>2655900</v>
       </c>
       <c r="E52" s="3">
-        <v>324200</v>
+        <v>1905200</v>
       </c>
       <c r="F52" s="3">
-        <v>985700</v>
+        <v>308900</v>
       </c>
       <c r="G52" s="3">
-        <v>358900</v>
+        <v>939200</v>
       </c>
       <c r="H52" s="3">
-        <v>411600</v>
+        <v>342000</v>
       </c>
       <c r="I52" s="3">
-        <v>458000</v>
+        <v>392200</v>
       </c>
       <c r="J52" s="3">
+        <v>436400</v>
+      </c>
+      <c r="K52" s="3">
         <v>413500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5532500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3662300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5801700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7564000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1669480000</v>
+        <v>1709120000</v>
       </c>
       <c r="E54" s="3">
-        <v>1598110000</v>
+        <v>1590750000</v>
       </c>
       <c r="F54" s="3">
-        <v>1522890000</v>
+        <v>1522750000</v>
       </c>
       <c r="G54" s="3">
-        <v>1424780000</v>
+        <v>1451070000</v>
       </c>
       <c r="H54" s="3">
-        <v>1472680000</v>
+        <v>1357590000</v>
       </c>
       <c r="I54" s="3">
-        <v>1445290000</v>
+        <v>1403240000</v>
       </c>
       <c r="J54" s="3">
+        <v>1377130000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1397370000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1344860000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1588320000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1615870000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1503910000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,35 +2527,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13709800</v>
+        <v>15983800</v>
       </c>
       <c r="E57" s="3">
-        <v>21488600</v>
+        <v>13063300</v>
       </c>
       <c r="F57" s="3">
-        <v>18286000</v>
+        <v>20475300</v>
       </c>
       <c r="G57" s="3">
-        <v>21738800</v>
+        <v>17423700</v>
       </c>
       <c r="H57" s="3">
-        <v>13458000</v>
+        <v>20713700</v>
       </c>
       <c r="I57" s="3">
-        <v>13568900</v>
+        <v>12823400</v>
       </c>
       <c r="J57" s="3">
+        <v>12929000</v>
+      </c>
+      <c r="K57" s="3">
         <v>23974500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2436,9 +2566,12 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2475,48 +2608,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6196400</v>
+        <v>7571400</v>
       </c>
       <c r="E59" s="3">
-        <v>6398900</v>
+        <v>5904200</v>
       </c>
       <c r="F59" s="3">
-        <v>6814500</v>
+        <v>6097200</v>
       </c>
       <c r="G59" s="3">
-        <v>2503600</v>
+        <v>6493200</v>
       </c>
       <c r="H59" s="3">
-        <v>2144200</v>
+        <v>2385600</v>
       </c>
       <c r="I59" s="3">
-        <v>2039800</v>
+        <v>2043000</v>
       </c>
       <c r="J59" s="3">
+        <v>1943600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2005500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>424500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1963800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1773800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1902700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>90688900</v>
+        <v>102315000</v>
       </c>
       <c r="E61" s="3">
-        <v>84403700</v>
+        <v>86412300</v>
       </c>
       <c r="F61" s="3">
-        <v>74595800</v>
+        <v>80423500</v>
       </c>
       <c r="G61" s="3">
-        <v>83127000</v>
+        <v>71078100</v>
       </c>
       <c r="H61" s="3">
-        <v>93407200</v>
+        <v>79207000</v>
       </c>
       <c r="I61" s="3">
-        <v>104757000</v>
+        <v>89002400</v>
       </c>
       <c r="J61" s="3">
+        <v>99817100</v>
+      </c>
+      <c r="K61" s="3">
         <v>106459000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>93656100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>89079600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>79572100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>76494800</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>209300</v>
+        <v>174700</v>
       </c>
       <c r="E62" s="3">
-        <v>554900</v>
+        <v>199500</v>
       </c>
       <c r="F62" s="3">
-        <v>186600</v>
+        <v>528700</v>
       </c>
       <c r="G62" s="3">
-        <v>779500</v>
+        <v>177800</v>
       </c>
       <c r="H62" s="3">
-        <v>2207700</v>
+        <v>742800</v>
       </c>
       <c r="I62" s="3">
-        <v>1012800</v>
+        <v>2103600</v>
       </c>
       <c r="J62" s="3">
+        <v>965100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1455400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5104500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>129300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>143300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1605210000</v>
+        <v>1647870000</v>
       </c>
       <c r="E66" s="3">
-        <v>1532460000</v>
+        <v>1529510000</v>
       </c>
       <c r="F66" s="3">
-        <v>1461510000</v>
+        <v>1460190000</v>
       </c>
       <c r="G66" s="3">
-        <v>1361860000</v>
+        <v>1392590000</v>
       </c>
       <c r="H66" s="3">
-        <v>1408740000</v>
+        <v>1297640000</v>
       </c>
       <c r="I66" s="3">
-        <v>1385730000</v>
+        <v>1342310000</v>
       </c>
       <c r="J66" s="3">
+        <v>1320380000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1339590000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1286980000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1530660000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1564090000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1463490000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2907,23 +3074,26 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>713200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1511000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2826400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3411300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3709700</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19219000</v>
+        <v>16777600</v>
       </c>
       <c r="E72" s="3">
-        <v>21394800</v>
+        <v>18312700</v>
       </c>
       <c r="F72" s="3">
-        <v>19472600</v>
+        <v>20385900</v>
       </c>
       <c r="G72" s="3">
-        <v>19759300</v>
+        <v>18554300</v>
       </c>
       <c r="H72" s="3">
-        <v>9417300</v>
+        <v>18827500</v>
       </c>
       <c r="I72" s="3">
-        <v>6625200</v>
+        <v>8973200</v>
       </c>
       <c r="J72" s="3">
+        <v>6312800</v>
+      </c>
+      <c r="K72" s="3">
         <v>5384300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19661900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4858800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7985800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14519200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64271500</v>
+        <v>61249400</v>
       </c>
       <c r="E76" s="3">
-        <v>65648800</v>
+        <v>61240600</v>
       </c>
       <c r="F76" s="3">
-        <v>61374200</v>
+        <v>62553000</v>
       </c>
       <c r="G76" s="3">
-        <v>62918200</v>
+        <v>58479900</v>
       </c>
       <c r="H76" s="3">
-        <v>63941300</v>
+        <v>59951200</v>
       </c>
       <c r="I76" s="3">
-        <v>59564400</v>
+        <v>60926100</v>
       </c>
       <c r="J76" s="3">
+        <v>56755500</v>
+      </c>
+      <c r="K76" s="3">
         <v>57071700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56378400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54835000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48370900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36706000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-755000</v>
+        <v>-96200</v>
       </c>
       <c r="E81" s="3">
-        <v>4194500</v>
+        <v>-719400</v>
       </c>
       <c r="F81" s="3">
-        <v>1082900</v>
+        <v>3996700</v>
       </c>
       <c r="G81" s="3">
-        <v>609000</v>
+        <v>1031800</v>
       </c>
       <c r="H81" s="3">
-        <v>4164600</v>
+        <v>580300</v>
       </c>
       <c r="I81" s="3">
-        <v>2613200</v>
+        <v>3968200</v>
       </c>
       <c r="J81" s="3">
+        <v>2490000</v>
+      </c>
+      <c r="K81" s="3">
         <v>6114500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4303800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4445300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7839400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5855400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1646700</v>
+        <v>1641900</v>
       </c>
       <c r="E83" s="3">
-        <v>1670400</v>
+        <v>1569100</v>
       </c>
       <c r="F83" s="3">
-        <v>1757300</v>
+        <v>1591600</v>
       </c>
       <c r="G83" s="3">
-        <v>2560700</v>
+        <v>1674400</v>
       </c>
       <c r="H83" s="3">
-        <v>1291700</v>
+        <v>2440000</v>
       </c>
       <c r="I83" s="3">
-        <v>1234400</v>
+        <v>1230800</v>
       </c>
       <c r="J83" s="3">
+        <v>1176200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1210800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1139000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1457800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1420800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1498100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>39641200</v>
+        <v>6917500</v>
       </c>
       <c r="E89" s="3">
-        <v>3379700</v>
+        <v>37771900</v>
       </c>
       <c r="F89" s="3">
-        <v>-29136100</v>
+        <v>3220400</v>
       </c>
       <c r="G89" s="3">
-        <v>4765900</v>
+        <v>-27762200</v>
       </c>
       <c r="H89" s="3">
-        <v>-1136700</v>
+        <v>4541200</v>
       </c>
       <c r="I89" s="3">
-        <v>8748000</v>
+        <v>-1083100</v>
       </c>
       <c r="J89" s="3">
+        <v>8335400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1742700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>47183700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>53799800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11733800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16176500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-982300</v>
+        <v>-1275000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1524900</v>
+        <v>-936000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1752200</v>
+        <v>-1453000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1137100</v>
+        <v>-1669600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2106800</v>
+        <v>-1083500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3106900</v>
+        <v>-2007400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2960400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2801600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1533600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4131100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1458700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1577600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36166300</v>
+        <v>42528700</v>
       </c>
       <c r="E94" s="3">
-        <v>-18841800</v>
+        <v>-34460800</v>
       </c>
       <c r="F94" s="3">
-        <v>-85132700</v>
+        <v>-17953300</v>
       </c>
       <c r="G94" s="3">
-        <v>-48838900</v>
+        <v>-81118100</v>
       </c>
       <c r="H94" s="3">
-        <v>-31633700</v>
+        <v>-46535800</v>
       </c>
       <c r="I94" s="3">
-        <v>-92299300</v>
+        <v>-30142000</v>
       </c>
       <c r="J94" s="3">
+        <v>-87946800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-43101900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>18570300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3772400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57149400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16659800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1418800</v>
+        <v>-1439000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1373500</v>
+        <v>-1351900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1372700</v>
+        <v>-1308700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1372900</v>
+        <v>-1308000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1372700</v>
+        <v>-1308100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1370100</v>
+        <v>-1307900</v>
       </c>
       <c r="J96" s="3">
+        <v>-1305500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1408000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1249200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1375600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1378700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1951800</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>14358300</v>
+        <v>53330800</v>
       </c>
       <c r="E100" s="3">
-        <v>62668700</v>
+        <v>13681200</v>
       </c>
       <c r="F100" s="3">
-        <v>89093600</v>
+        <v>59713400</v>
       </c>
       <c r="G100" s="3">
-        <v>24574500</v>
+        <v>84892300</v>
       </c>
       <c r="H100" s="3">
-        <v>33545400</v>
+        <v>23415600</v>
       </c>
       <c r="I100" s="3">
-        <v>85580900</v>
+        <v>31963500</v>
       </c>
       <c r="J100" s="3">
+        <v>81545200</v>
+      </c>
+      <c r="K100" s="3">
         <v>40078300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6405100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-53986900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>69064300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>26811200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6970600</v>
+        <v>5892800</v>
       </c>
       <c r="E101" s="3">
-        <v>1698700</v>
+        <v>6641900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1657700</v>
+        <v>1618600</v>
       </c>
       <c r="G101" s="3">
-        <v>1486600</v>
+        <v>-1579500</v>
       </c>
       <c r="H101" s="3">
-        <v>-99800</v>
+        <v>1416500</v>
       </c>
       <c r="I101" s="3">
-        <v>-85800</v>
+        <v>-95100</v>
       </c>
       <c r="J101" s="3">
+        <v>-81700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-202300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>266300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>287800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>287300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24803800</v>
+        <v>108669700</v>
       </c>
       <c r="E102" s="3">
-        <v>48905300</v>
+        <v>23634100</v>
       </c>
       <c r="F102" s="3">
-        <v>-26832900</v>
+        <v>46599100</v>
       </c>
       <c r="G102" s="3">
-        <v>-18011900</v>
+        <v>-25567600</v>
       </c>
       <c r="H102" s="3">
-        <v>675200</v>
+        <v>-17162500</v>
       </c>
       <c r="I102" s="3">
-        <v>1943800</v>
+        <v>643300</v>
       </c>
       <c r="J102" s="3">
+        <v>1852100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1483200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>59615200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3873100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>468400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6037900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MFG_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23281000</v>
+        <v>22501600</v>
       </c>
       <c r="E8" s="3">
-        <v>9919900</v>
+        <v>9587800</v>
       </c>
       <c r="F8" s="3">
-        <v>10006500</v>
+        <v>9671500</v>
       </c>
       <c r="G8" s="3">
-        <v>14778600</v>
+        <v>14283800</v>
       </c>
       <c r="H8" s="3">
-        <v>15165100</v>
+        <v>14657400</v>
       </c>
       <c r="I8" s="3">
-        <v>12104200</v>
+        <v>11698900</v>
       </c>
       <c r="J8" s="3">
-        <v>10367000</v>
+        <v>10020000</v>
       </c>
       <c r="K8" s="3">
         <v>10816200</v>
@@ -996,16 +996,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E15" s="3">
         <v>-52900</v>
       </c>
-      <c r="E15" s="3">
-        <v>-54700</v>
-      </c>
       <c r="F15" s="3">
-        <v>-58500</v>
+        <v>-56500</v>
       </c>
       <c r="G15" s="3">
-        <v>-63700</v>
+        <v>-61500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15666300</v>
+        <v>15141800</v>
       </c>
       <c r="E17" s="3">
-        <v>3941500</v>
+        <v>3809500</v>
       </c>
       <c r="F17" s="3">
-        <v>4113200</v>
+        <v>3975500</v>
       </c>
       <c r="G17" s="3">
-        <v>9939800</v>
+        <v>9607000</v>
       </c>
       <c r="H17" s="3">
-        <v>9185000</v>
+        <v>8877500</v>
       </c>
       <c r="I17" s="3">
-        <v>5038000</v>
+        <v>4869300</v>
       </c>
       <c r="J17" s="3">
-        <v>4526300</v>
+        <v>4374700</v>
       </c>
       <c r="K17" s="3">
         <v>3702500</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7614700</v>
+        <v>7359700</v>
       </c>
       <c r="E18" s="3">
-        <v>5978400</v>
+        <v>5778300</v>
       </c>
       <c r="F18" s="3">
-        <v>5893300</v>
+        <v>5696000</v>
       </c>
       <c r="G18" s="3">
-        <v>4838700</v>
+        <v>4676700</v>
       </c>
       <c r="H18" s="3">
-        <v>5980200</v>
+        <v>5780000</v>
       </c>
       <c r="I18" s="3">
-        <v>7066200</v>
+        <v>6829600</v>
       </c>
       <c r="J18" s="3">
-        <v>5840800</v>
+        <v>5645200</v>
       </c>
       <c r="K18" s="3">
         <v>7113800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7139500</v>
+        <v>-6900400</v>
       </c>
       <c r="E20" s="3">
-        <v>-7644300</v>
+        <v>-7388400</v>
       </c>
       <c r="F20" s="3">
-        <v>1174300</v>
+        <v>1135000</v>
       </c>
       <c r="G20" s="3">
-        <v>-3784300</v>
+        <v>-3657600</v>
       </c>
       <c r="H20" s="3">
-        <v>-5395800</v>
+        <v>-5215200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1300200</v>
+        <v>-1256700</v>
       </c>
       <c r="J20" s="3">
-        <v>-2540600</v>
+        <v>-2455500</v>
       </c>
       <c r="K20" s="3">
         <v>1513800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2117100</v>
+        <v>2039100</v>
       </c>
       <c r="E21" s="3">
-        <v>-96800</v>
+        <v>-100400</v>
       </c>
       <c r="F21" s="3">
-        <v>8659200</v>
+        <v>8362400</v>
       </c>
       <c r="G21" s="3">
-        <v>2728900</v>
+        <v>2630200</v>
       </c>
       <c r="H21" s="3">
-        <v>3024300</v>
+        <v>2912400</v>
       </c>
       <c r="I21" s="3">
-        <v>6996800</v>
+        <v>6757200</v>
       </c>
       <c r="J21" s="3">
-        <v>4476300</v>
+        <v>4321300</v>
       </c>
       <c r="K21" s="3">
         <v>9846700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>475200</v>
+        <v>459300</v>
       </c>
       <c r="E23" s="3">
-        <v>-1665900</v>
+        <v>-1610100</v>
       </c>
       <c r="F23" s="3">
-        <v>7067600</v>
+        <v>6831000</v>
       </c>
       <c r="G23" s="3">
-        <v>1054500</v>
+        <v>1019200</v>
       </c>
       <c r="H23" s="3">
-        <v>584400</v>
+        <v>564800</v>
       </c>
       <c r="I23" s="3">
-        <v>5766000</v>
+        <v>5572900</v>
       </c>
       <c r="J23" s="3">
-        <v>3300200</v>
+        <v>3189700</v>
       </c>
       <c r="K23" s="3">
         <v>8627500</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>241400</v>
+        <v>233300</v>
       </c>
       <c r="E24" s="3">
-        <v>-968800</v>
+        <v>-936400</v>
       </c>
       <c r="F24" s="3">
-        <v>1447600</v>
+        <v>1399200</v>
       </c>
       <c r="G24" s="3">
-        <v>324100</v>
+        <v>313200</v>
       </c>
       <c r="H24" s="3">
-        <v>64100</v>
+        <v>62000</v>
       </c>
       <c r="I24" s="3">
-        <v>1632300</v>
+        <v>1577700</v>
       </c>
       <c r="J24" s="3">
-        <v>626800</v>
+        <v>605900</v>
       </c>
       <c r="K24" s="3">
         <v>2498600</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>233800</v>
+        <v>225900</v>
       </c>
       <c r="E26" s="3">
-        <v>-697100</v>
+        <v>-673800</v>
       </c>
       <c r="F26" s="3">
-        <v>5620000</v>
+        <v>5431800</v>
       </c>
       <c r="G26" s="3">
-        <v>730400</v>
+        <v>705900</v>
       </c>
       <c r="H26" s="3">
-        <v>520200</v>
+        <v>502800</v>
       </c>
       <c r="I26" s="3">
-        <v>4133600</v>
+        <v>3995200</v>
       </c>
       <c r="J26" s="3">
-        <v>2673300</v>
+        <v>2583800</v>
       </c>
       <c r="K26" s="3">
         <v>6129000</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-96200</v>
+        <v>-93000</v>
       </c>
       <c r="E27" s="3">
-        <v>-719400</v>
+        <v>-695400</v>
       </c>
       <c r="F27" s="3">
-        <v>3996700</v>
+        <v>3862900</v>
       </c>
       <c r="G27" s="3">
-        <v>1031800</v>
+        <v>997300</v>
       </c>
       <c r="H27" s="3">
-        <v>580300</v>
+        <v>560900</v>
       </c>
       <c r="I27" s="3">
-        <v>3968200</v>
+        <v>3835300</v>
       </c>
       <c r="J27" s="3">
-        <v>2490000</v>
+        <v>2406600</v>
       </c>
       <c r="K27" s="3">
         <v>6114500</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7139500</v>
+        <v>6900400</v>
       </c>
       <c r="E32" s="3">
-        <v>7644300</v>
+        <v>7388400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1174300</v>
+        <v>-1135000</v>
       </c>
       <c r="G32" s="3">
-        <v>3784300</v>
+        <v>3657600</v>
       </c>
       <c r="H32" s="3">
-        <v>5395800</v>
+        <v>5215200</v>
       </c>
       <c r="I32" s="3">
-        <v>1300200</v>
+        <v>1256700</v>
       </c>
       <c r="J32" s="3">
-        <v>2540600</v>
+        <v>2455500</v>
       </c>
       <c r="K32" s="3">
         <v>-1513800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-96200</v>
+        <v>-93000</v>
       </c>
       <c r="E33" s="3">
-        <v>-719400</v>
+        <v>-695400</v>
       </c>
       <c r="F33" s="3">
-        <v>3996700</v>
+        <v>3862900</v>
       </c>
       <c r="G33" s="3">
-        <v>1031800</v>
+        <v>997300</v>
       </c>
       <c r="H33" s="3">
-        <v>580300</v>
+        <v>560900</v>
       </c>
       <c r="I33" s="3">
-        <v>3968200</v>
+        <v>3835300</v>
       </c>
       <c r="J33" s="3">
-        <v>2490000</v>
+        <v>2406600</v>
       </c>
       <c r="K33" s="3">
         <v>6114500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-96200</v>
+        <v>-93000</v>
       </c>
       <c r="E35" s="3">
-        <v>-719400</v>
+        <v>-695400</v>
       </c>
       <c r="F35" s="3">
-        <v>3996700</v>
+        <v>3862900</v>
       </c>
       <c r="G35" s="3">
-        <v>1031800</v>
+        <v>997300</v>
       </c>
       <c r="H35" s="3">
-        <v>580300</v>
+        <v>560900</v>
       </c>
       <c r="I35" s="3">
-        <v>3968200</v>
+        <v>3835300</v>
       </c>
       <c r="J35" s="3">
-        <v>2490000</v>
+        <v>2406600</v>
       </c>
       <c r="K35" s="3">
         <v>6114500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>467107000</v>
+        <v>451469000</v>
       </c>
       <c r="E41" s="3">
-        <v>358437000</v>
+        <v>346437000</v>
       </c>
       <c r="F41" s="3">
-        <v>334803000</v>
+        <v>323594000</v>
       </c>
       <c r="G41" s="3">
-        <v>288204000</v>
+        <v>278555000</v>
       </c>
       <c r="H41" s="3">
-        <v>313772000</v>
+        <v>303267000</v>
       </c>
       <c r="I41" s="3">
-        <v>330934000</v>
+        <v>319855000</v>
       </c>
       <c r="J41" s="3">
-        <v>326923000</v>
+        <v>315978000</v>
       </c>
       <c r="K41" s="3">
         <v>264247000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>344842000</v>
+        <v>333297000</v>
       </c>
       <c r="E42" s="3">
-        <v>308759000</v>
+        <v>298422000</v>
       </c>
       <c r="F42" s="3">
-        <v>309715000</v>
+        <v>299346000</v>
       </c>
       <c r="G42" s="3">
-        <v>355360000</v>
+        <v>343462000</v>
       </c>
       <c r="H42" s="3">
-        <v>270843000</v>
+        <v>261775000</v>
       </c>
       <c r="I42" s="3">
-        <v>273560000</v>
+        <v>264401000</v>
       </c>
       <c r="J42" s="3">
-        <v>280227000</v>
+        <v>270846000</v>
       </c>
       <c r="K42" s="3">
         <v>322177000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15138400</v>
+        <v>14631600</v>
       </c>
       <c r="E48" s="3">
-        <v>15624000</v>
+        <v>15100900</v>
       </c>
       <c r="F48" s="3">
-        <v>16645900</v>
+        <v>16088700</v>
       </c>
       <c r="G48" s="3">
-        <v>16964200</v>
+        <v>16396300</v>
       </c>
       <c r="H48" s="3">
-        <v>13059500</v>
+        <v>12622300</v>
       </c>
       <c r="I48" s="3">
-        <v>14538200</v>
+        <v>14051500</v>
       </c>
       <c r="J48" s="3">
-        <v>14023500</v>
+        <v>13554100</v>
       </c>
       <c r="K48" s="3">
         <v>13251900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>945400</v>
+        <v>913700</v>
       </c>
       <c r="E49" s="3">
-        <v>966200</v>
+        <v>933800</v>
       </c>
       <c r="F49" s="3">
-        <v>1022400</v>
+        <v>988100</v>
       </c>
       <c r="G49" s="3">
-        <v>1083300</v>
+        <v>1047000</v>
       </c>
       <c r="H49" s="3">
-        <v>1163700</v>
+        <v>1124800</v>
       </c>
       <c r="I49" s="3">
-        <v>1234100</v>
+        <v>1192700</v>
       </c>
       <c r="J49" s="3">
-        <v>1300600</v>
+        <v>1257100</v>
       </c>
       <c r="K49" s="3">
         <v>488500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2655900</v>
+        <v>2567000</v>
       </c>
       <c r="E52" s="3">
-        <v>1905200</v>
+        <v>1841400</v>
       </c>
       <c r="F52" s="3">
-        <v>308900</v>
+        <v>298600</v>
       </c>
       <c r="G52" s="3">
-        <v>939200</v>
+        <v>907800</v>
       </c>
       <c r="H52" s="3">
-        <v>342000</v>
+        <v>330500</v>
       </c>
       <c r="I52" s="3">
-        <v>392200</v>
+        <v>379100</v>
       </c>
       <c r="J52" s="3">
-        <v>436400</v>
+        <v>421800</v>
       </c>
       <c r="K52" s="3">
         <v>413500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1709120000</v>
+        <v>1651900000</v>
       </c>
       <c r="E54" s="3">
-        <v>1590750000</v>
+        <v>1537500000</v>
       </c>
       <c r="F54" s="3">
-        <v>1522750000</v>
+        <v>1471770000</v>
       </c>
       <c r="G54" s="3">
-        <v>1451070000</v>
+        <v>1402490000</v>
       </c>
       <c r="H54" s="3">
-        <v>1357590000</v>
+        <v>1312140000</v>
       </c>
       <c r="I54" s="3">
-        <v>1403240000</v>
+        <v>1356260000</v>
       </c>
       <c r="J54" s="3">
-        <v>1377130000</v>
+        <v>1331030000</v>
       </c>
       <c r="K54" s="3">
         <v>1397370000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15983800</v>
+        <v>15448700</v>
       </c>
       <c r="E57" s="3">
-        <v>13063300</v>
+        <v>12626000</v>
       </c>
       <c r="F57" s="3">
-        <v>20475300</v>
+        <v>19789800</v>
       </c>
       <c r="G57" s="3">
-        <v>17423700</v>
+        <v>16840400</v>
       </c>
       <c r="H57" s="3">
-        <v>20713700</v>
+        <v>20020200</v>
       </c>
       <c r="I57" s="3">
-        <v>12823400</v>
+        <v>12394100</v>
       </c>
       <c r="J57" s="3">
-        <v>12929000</v>
+        <v>12496100</v>
       </c>
       <c r="K57" s="3">
         <v>23974500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7571400</v>
+        <v>7317900</v>
       </c>
       <c r="E59" s="3">
-        <v>5904200</v>
+        <v>5706500</v>
       </c>
       <c r="F59" s="3">
-        <v>6097200</v>
+        <v>5893100</v>
       </c>
       <c r="G59" s="3">
-        <v>6493200</v>
+        <v>6275800</v>
       </c>
       <c r="H59" s="3">
-        <v>2385600</v>
+        <v>2305700</v>
       </c>
       <c r="I59" s="3">
-        <v>2043000</v>
+        <v>1974600</v>
       </c>
       <c r="J59" s="3">
-        <v>1943600</v>
+        <v>1878500</v>
       </c>
       <c r="K59" s="3">
         <v>2005500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>102315000</v>
+        <v>98889700</v>
       </c>
       <c r="E61" s="3">
-        <v>86412300</v>
+        <v>83519400</v>
       </c>
       <c r="F61" s="3">
-        <v>80423500</v>
+        <v>77731000</v>
       </c>
       <c r="G61" s="3">
-        <v>71078100</v>
+        <v>68698400</v>
       </c>
       <c r="H61" s="3">
-        <v>79207000</v>
+        <v>76555200</v>
       </c>
       <c r="I61" s="3">
-        <v>89002400</v>
+        <v>86022700</v>
       </c>
       <c r="J61" s="3">
-        <v>99817100</v>
+        <v>96475300</v>
       </c>
       <c r="K61" s="3">
         <v>106459000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>174700</v>
+        <v>168800</v>
       </c>
       <c r="E62" s="3">
-        <v>199500</v>
+        <v>192800</v>
       </c>
       <c r="F62" s="3">
-        <v>528700</v>
+        <v>511000</v>
       </c>
       <c r="G62" s="3">
-        <v>177800</v>
+        <v>171800</v>
       </c>
       <c r="H62" s="3">
-        <v>742800</v>
+        <v>717900</v>
       </c>
       <c r="I62" s="3">
-        <v>2103600</v>
+        <v>2033200</v>
       </c>
       <c r="J62" s="3">
-        <v>965100</v>
+        <v>932800</v>
       </c>
       <c r="K62" s="3">
         <v>1455400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1647870000</v>
+        <v>1592710000</v>
       </c>
       <c r="E66" s="3">
-        <v>1529510000</v>
+        <v>1478310000</v>
       </c>
       <c r="F66" s="3">
-        <v>1460190000</v>
+        <v>1411310000</v>
       </c>
       <c r="G66" s="3">
-        <v>1392590000</v>
+        <v>1345970000</v>
       </c>
       <c r="H66" s="3">
-        <v>1297640000</v>
+        <v>1254190000</v>
       </c>
       <c r="I66" s="3">
-        <v>1342310000</v>
+        <v>1297370000</v>
       </c>
       <c r="J66" s="3">
-        <v>1320380000</v>
+        <v>1276170000</v>
       </c>
       <c r="K66" s="3">
         <v>1339590000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16777600</v>
+        <v>16215900</v>
       </c>
       <c r="E72" s="3">
-        <v>18312700</v>
+        <v>17699600</v>
       </c>
       <c r="F72" s="3">
-        <v>20385900</v>
+        <v>19703400</v>
       </c>
       <c r="G72" s="3">
-        <v>18554300</v>
+        <v>17933100</v>
       </c>
       <c r="H72" s="3">
-        <v>18827500</v>
+        <v>18197200</v>
       </c>
       <c r="I72" s="3">
-        <v>8973200</v>
+        <v>8672800</v>
       </c>
       <c r="J72" s="3">
-        <v>6312800</v>
+        <v>6101500</v>
       </c>
       <c r="K72" s="3">
         <v>5384300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61249400</v>
+        <v>59198900</v>
       </c>
       <c r="E76" s="3">
-        <v>61240600</v>
+        <v>59190400</v>
       </c>
       <c r="F76" s="3">
-        <v>62553000</v>
+        <v>60458800</v>
       </c>
       <c r="G76" s="3">
-        <v>58479900</v>
+        <v>56522100</v>
       </c>
       <c r="H76" s="3">
-        <v>59951200</v>
+        <v>57944100</v>
       </c>
       <c r="I76" s="3">
-        <v>60926100</v>
+        <v>58886300</v>
       </c>
       <c r="J76" s="3">
-        <v>56755500</v>
+        <v>54855400</v>
       </c>
       <c r="K76" s="3">
         <v>57071700</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-96200</v>
+        <v>-93000</v>
       </c>
       <c r="E81" s="3">
-        <v>-719400</v>
+        <v>-695400</v>
       </c>
       <c r="F81" s="3">
-        <v>3996700</v>
+        <v>3862900</v>
       </c>
       <c r="G81" s="3">
-        <v>1031800</v>
+        <v>997300</v>
       </c>
       <c r="H81" s="3">
-        <v>580300</v>
+        <v>560900</v>
       </c>
       <c r="I81" s="3">
-        <v>3968200</v>
+        <v>3835300</v>
       </c>
       <c r="J81" s="3">
-        <v>2490000</v>
+        <v>2406600</v>
       </c>
       <c r="K81" s="3">
         <v>6114500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1641900</v>
+        <v>1586900</v>
       </c>
       <c r="E83" s="3">
-        <v>1569100</v>
+        <v>1516600</v>
       </c>
       <c r="F83" s="3">
-        <v>1591600</v>
+        <v>1538300</v>
       </c>
       <c r="G83" s="3">
-        <v>1674400</v>
+        <v>1618300</v>
       </c>
       <c r="H83" s="3">
-        <v>2440000</v>
+        <v>2358300</v>
       </c>
       <c r="I83" s="3">
-        <v>1230800</v>
+        <v>1189600</v>
       </c>
       <c r="J83" s="3">
-        <v>1176200</v>
+        <v>1136800</v>
       </c>
       <c r="K83" s="3">
         <v>1210800</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6917500</v>
+        <v>6685900</v>
       </c>
       <c r="E89" s="3">
-        <v>37771900</v>
+        <v>36507300</v>
       </c>
       <c r="F89" s="3">
-        <v>3220400</v>
+        <v>3112500</v>
       </c>
       <c r="G89" s="3">
-        <v>-27762200</v>
+        <v>-26832700</v>
       </c>
       <c r="H89" s="3">
-        <v>4541200</v>
+        <v>4389200</v>
       </c>
       <c r="I89" s="3">
-        <v>-1083100</v>
+        <v>-1046900</v>
       </c>
       <c r="J89" s="3">
-        <v>8335400</v>
+        <v>8056400</v>
       </c>
       <c r="K89" s="3">
         <v>1742700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1275000</v>
+        <v>-1232300</v>
       </c>
       <c r="E91" s="3">
-        <v>-936000</v>
+        <v>-904600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1453000</v>
+        <v>-1404300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1669600</v>
+        <v>-1613700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1083500</v>
+        <v>-1047200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2007400</v>
+        <v>-1940200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2960400</v>
+        <v>-2861300</v>
       </c>
       <c r="K91" s="3">
         <v>-2801600</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>42528700</v>
+        <v>41104800</v>
       </c>
       <c r="E94" s="3">
-        <v>-34460800</v>
+        <v>-33307100</v>
       </c>
       <c r="F94" s="3">
-        <v>-17953300</v>
+        <v>-17352300</v>
       </c>
       <c r="G94" s="3">
-        <v>-81118100</v>
+        <v>-78402400</v>
       </c>
       <c r="H94" s="3">
-        <v>-46535800</v>
+        <v>-44977800</v>
       </c>
       <c r="I94" s="3">
-        <v>-30142000</v>
+        <v>-29132800</v>
       </c>
       <c r="J94" s="3">
-        <v>-87946800</v>
+        <v>-85002400</v>
       </c>
       <c r="K94" s="3">
         <v>-43101900</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1439000</v>
+        <v>-1390800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1351900</v>
+        <v>-1306600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1308700</v>
+        <v>-1264900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1308000</v>
+        <v>-1264200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1308100</v>
+        <v>-1264300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1307900</v>
+        <v>-1264100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1305500</v>
+        <v>-1261800</v>
       </c>
       <c r="K96" s="3">
         <v>-1408000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>53330800</v>
+        <v>51545300</v>
       </c>
       <c r="E100" s="3">
-        <v>13681200</v>
+        <v>13223100</v>
       </c>
       <c r="F100" s="3">
-        <v>59713400</v>
+        <v>57714300</v>
       </c>
       <c r="G100" s="3">
-        <v>84892300</v>
+        <v>82050200</v>
       </c>
       <c r="H100" s="3">
-        <v>23415600</v>
+        <v>22631700</v>
       </c>
       <c r="I100" s="3">
-        <v>31963500</v>
+        <v>30893400</v>
       </c>
       <c r="J100" s="3">
-        <v>81545200</v>
+        <v>78815200</v>
       </c>
       <c r="K100" s="3">
         <v>40078300</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5892800</v>
+        <v>5695500</v>
       </c>
       <c r="E101" s="3">
-        <v>6641900</v>
+        <v>6419500</v>
       </c>
       <c r="F101" s="3">
-        <v>1618600</v>
+        <v>1564500</v>
       </c>
       <c r="G101" s="3">
-        <v>-1579500</v>
+        <v>-1526700</v>
       </c>
       <c r="H101" s="3">
-        <v>1416500</v>
+        <v>1369100</v>
       </c>
       <c r="I101" s="3">
-        <v>-95100</v>
+        <v>-91900</v>
       </c>
       <c r="J101" s="3">
-        <v>-81700</v>
+        <v>-79000</v>
       </c>
       <c r="K101" s="3">
         <v>-202300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>108669700</v>
+        <v>105031600</v>
       </c>
       <c r="E102" s="3">
-        <v>23634100</v>
+        <v>22842900</v>
       </c>
       <c r="F102" s="3">
-        <v>46599100</v>
+        <v>45039000</v>
       </c>
       <c r="G102" s="3">
-        <v>-25567600</v>
+        <v>-24711600</v>
       </c>
       <c r="H102" s="3">
-        <v>-17162500</v>
+        <v>-16587900</v>
       </c>
       <c r="I102" s="3">
-        <v>643300</v>
+        <v>621800</v>
       </c>
       <c r="J102" s="3">
-        <v>1852100</v>
+        <v>1790100</v>
       </c>
       <c r="K102" s="3">
         <v>-1483200</v>
